--- a/historico_recap.xlsx
+++ b/historico_recap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/pedro_klauber_prestserv_petrobras_com_br1/Documents/C3/Programação/python/Automações RECAP/Indicadores/Novo projeto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="970" documentId="8_{CC12F0BA-7BC6-493E-83E4-E071F8399D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5527A2F5-798F-483A-8D35-CA314D61C3B9}"/>
+  <xr:revisionPtr revIDLastSave="972" documentId="8_{CC12F0BA-7BC6-493E-83E4-E071F8399D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00DEC009-B595-4298-B6DD-2E75D2446779}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{764A3B1C-4385-41E0-85B9-B2E5043E601B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{764A3B1C-4385-41E0-85B9-B2E5043E601B}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTA DE INDICADORES" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="125">
   <si>
     <t>DATA</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>sgsgsgsg</t>
+  </si>
+  <si>
+    <t>testezxczxczxcxzcxzczxcxzczxcxzcxzcxzcxzcxzczxcxz xzcxzczxcxzcxz</t>
   </si>
 </sst>
 </file>
@@ -3688,9 +3691,9 @@
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5000,9 +5003,9 @@
   </sheetPr>
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5997,7 +6000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>26</v>
       </c>
@@ -6018,7 +6021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>41</v>
       </c>
@@ -6037,6 +6040,9 @@
       </c>
       <c r="F50" s="28">
         <v>1</v>
+      </c>
+      <c r="G50" s="54" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/historico_recap.xlsx
+++ b/historico_recap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/pedro_klauber_prestserv_petrobras_com_br1/Documents/C3/Programação/python/Automações RECAP/Indicadores/Novo projeto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="972" documentId="8_{CC12F0BA-7BC6-493E-83E4-E071F8399D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00DEC009-B595-4298-B6DD-2E75D2446779}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{7429B5BA-055C-496B-8031-57E3B212E6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4691169D-74BB-464D-81ED-419CC3E86BA5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{764A3B1C-4385-41E0-85B9-B2E5043E601B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="10" xr2:uid="{764A3B1C-4385-41E0-85B9-B2E5043E601B}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTA DE INDICADORES" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="124">
   <si>
     <t>DATA</t>
   </si>
@@ -414,16 +414,13 @@
     <t>IMPACTO PREVISTO</t>
   </si>
   <si>
-    <t>Resumo</t>
-  </si>
-  <si>
-    <t>Esta semana uitas imediatas</t>
-  </si>
-  <si>
-    <t>sgsgsgsg</t>
-  </si>
-  <si>
-    <t>testezxczxczxcxzcxzczxcxzczxcxzcxzcxzcxzcxzczxcxz xzcxzczxcxzcxz</t>
+    <t>Mínimo</t>
+  </si>
+  <si>
+    <t>IVENTARIO (LINEAR)</t>
+  </si>
+  <si>
+    <t>EM CAMPO (LINEAR)</t>
   </si>
 </sst>
 </file>
@@ -597,7 +594,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -720,13 +717,6 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1301,11 +1291,11 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1313,10 +1303,9 @@
     <col min="1" max="1" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
@@ -1326,11 +1315,8 @@
       <c r="C1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>60</v>
       </c>
@@ -1340,9 +1326,8 @@
       <c r="C2" s="17">
         <v>1</v>
       </c>
-      <c r="D2" s="53"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>61</v>
       </c>
@@ -1352,9 +1337,8 @@
       <c r="C3" s="17">
         <v>1</v>
       </c>
-      <c r="D3" s="53"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>62</v>
       </c>
@@ -1364,9 +1348,8 @@
       <c r="C4" s="17">
         <v>1</v>
       </c>
-      <c r="D4" s="53"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>63</v>
       </c>
@@ -1376,9 +1359,8 @@
       <c r="C5" s="17">
         <v>1</v>
       </c>
-      <c r="D5" s="53"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>64</v>
       </c>
@@ -1388,9 +1370,8 @@
       <c r="C6" s="17">
         <v>1</v>
       </c>
-      <c r="D6" s="53"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>65</v>
       </c>
@@ -1400,9 +1381,8 @@
       <c r="C7" s="17">
         <v>1</v>
       </c>
-      <c r="D7" s="53"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>66</v>
       </c>
@@ -1412,9 +1392,8 @@
       <c r="C8" s="17">
         <v>1</v>
       </c>
-      <c r="D8" s="53"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>67</v>
       </c>
@@ -1424,9 +1403,8 @@
       <c r="C9" s="17">
         <v>1</v>
       </c>
-      <c r="D9" s="53"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>68</v>
       </c>
@@ -1436,9 +1414,8 @@
       <c r="C10" s="17">
         <v>1</v>
       </c>
-      <c r="D10" s="53"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>69</v>
       </c>
@@ -1448,9 +1425,8 @@
       <c r="C11" s="17">
         <v>1</v>
       </c>
-      <c r="D11" s="53"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>70</v>
       </c>
@@ -1460,9 +1436,8 @@
       <c r="C12" s="17">
         <v>1</v>
       </c>
-      <c r="D12" s="53"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>71</v>
       </c>
@@ -1472,9 +1447,8 @@
       <c r="C13" s="17">
         <v>1</v>
       </c>
-      <c r="D13" s="53"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>72</v>
       </c>
@@ -1484,9 +1458,8 @@
       <c r="C14" s="17">
         <v>1</v>
       </c>
-      <c r="D14" s="53"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>73</v>
       </c>
@@ -1496,9 +1469,8 @@
       <c r="C15" s="17">
         <v>1</v>
       </c>
-      <c r="D15" s="53"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -1508,9 +1480,8 @@
       <c r="C16" s="17">
         <v>1</v>
       </c>
-      <c r="D16" s="53"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>75</v>
       </c>
@@ -1520,9 +1491,8 @@
       <c r="C17" s="17">
         <v>1</v>
       </c>
-      <c r="D17" s="53"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>76</v>
       </c>
@@ -1532,9 +1502,8 @@
       <c r="C18" s="17">
         <v>1</v>
       </c>
-      <c r="D18" s="53"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -1544,9 +1513,8 @@
       <c r="C19" s="17">
         <v>1</v>
       </c>
-      <c r="D19" s="53"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>78</v>
       </c>
@@ -1556,9 +1524,8 @@
       <c r="C20" s="17">
         <v>1</v>
       </c>
-      <c r="D20" s="53"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>79</v>
       </c>
@@ -1569,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>80</v>
       </c>
@@ -1580,7 +1547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>81</v>
       </c>
@@ -1591,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>82</v>
       </c>
@@ -1602,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>83</v>
       </c>
@@ -1613,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>84</v>
       </c>
@@ -1624,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>84</v>
       </c>
@@ -1635,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>84</v>
       </c>
@@ -1646,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>84</v>
       </c>
@@ -1657,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>84</v>
       </c>
@@ -1668,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>84</v>
       </c>
@@ -1679,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>84</v>
       </c>
@@ -1975,11 +1942,11 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1993,10 +1960,12 @@
     <col min="7" max="7" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="54" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -2024,11 +1993,17 @@
       <c r="I1" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="47" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L1" s="47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>45722</v>
       </c>
@@ -2056,9 +2031,19 @@
       <c r="I2">
         <v>6738</v>
       </c>
-      <c r="J2" s="53"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>23665.900000000005</v>
+      </c>
+      <c r="K2">
+        <f>0.3*J2</f>
+        <v>7099.7700000000013</v>
+      </c>
+      <c r="L2">
+        <f>J2-H2</f>
+        <v>16533.900000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>45727</v>
       </c>
@@ -2086,9 +2071,19 @@
       <c r="I3">
         <v>7092</v>
       </c>
-      <c r="J3" s="53"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>23665.900000000005</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K8" si="0">0.3*J3</f>
+        <v>7099.7700000000013</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L8" si="1">J3-H3</f>
+        <v>16290.600000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>45740</v>
       </c>
@@ -2116,9 +2111,19 @@
       <c r="I4">
         <v>7116</v>
       </c>
-      <c r="J4" s="53"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>23665.900000000005</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>7099.7700000000013</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>16354.340000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>45748</v>
       </c>
@@ -2146,9 +2151,19 @@
       <c r="I5">
         <v>8541</v>
       </c>
-      <c r="J5" s="53"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>23665.900000000005</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>7099.7700000000013</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>15975.370000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>45770</v>
       </c>
@@ -2176,9 +2191,19 @@
       <c r="I6">
         <v>9811</v>
       </c>
-      <c r="J6" s="53"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>23665.900000000005</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>7099.7700000000013</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>15424.150000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>45776</v>
       </c>
@@ -2206,9 +2231,19 @@
       <c r="I7">
         <v>6557</v>
       </c>
-      <c r="J7" s="53"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>23665.900000000005</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>7099.7700000000013</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>17409.430000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>45789</v>
       </c>
@@ -2236,43 +2271,17 @@
       <c r="I8">
         <v>9195</v>
       </c>
-      <c r="J8" s="53"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J9" s="53"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J10" s="53"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J11" s="53"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J12" s="53"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J13" s="53"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J14" s="53"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J15" s="53"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J16" s="53"/>
-    </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J17" s="53"/>
-    </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J18" s="53"/>
-    </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J19" s="53"/>
-    </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J20" s="53"/>
+      <c r="J8">
+        <v>23665.900000000005</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>7099.7700000000013</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>15184.620000000004</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2301,13 +2310,13 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1:N1048576"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2323,10 +2332,9 @@
     <col min="11" max="11" width="23.33203125" customWidth="1"/>
     <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
@@ -2366,11 +2374,8 @@
       <c r="M1" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>34</v>
       </c>
@@ -2417,9 +2422,8 @@
         <f>L2/E2</f>
         <v>1.5</v>
       </c>
-      <c r="N2" s="53"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>35</v>
       </c>
@@ -2466,9 +2470,8 @@
         <f t="shared" ref="M3:M19" si="4">L3/E3</f>
         <v>1.1538461538461537</v>
       </c>
-      <c r="N3" s="53"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>36</v>
       </c>
@@ -2515,9 +2518,8 @@
         <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
-      <c r="N4" s="53"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>37</v>
       </c>
@@ -2564,9 +2566,8 @@
         <f t="shared" si="4"/>
         <v>1.3888888888888888</v>
       </c>
-      <c r="N5" s="53"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>38</v>
       </c>
@@ -2613,9 +2614,8 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N6" s="53"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>39</v>
       </c>
@@ -2662,9 +2662,8 @@
         <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
-      <c r="N7" s="53"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>40</v>
       </c>
@@ -2711,9 +2710,8 @@
         <f t="shared" si="4"/>
         <v>1.1363636363636362</v>
       </c>
-      <c r="N8" s="53"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>27</v>
       </c>
@@ -2760,9 +2758,8 @@
         <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="N9" s="53"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>28</v>
       </c>
@@ -2809,9 +2806,8 @@
         <f t="shared" si="4"/>
         <v>0.57377049180327877</v>
       </c>
-      <c r="N10" s="53"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>18</v>
       </c>
@@ -2858,9 +2854,8 @@
         <f t="shared" si="4"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="N11" s="53"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>19</v>
       </c>
@@ -2907,9 +2902,8 @@
         <f t="shared" si="4"/>
         <v>0.61224489795918358</v>
       </c>
-      <c r="N12" s="53"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
         <v>20</v>
       </c>
@@ -2956,9 +2950,8 @@
         <f t="shared" si="4"/>
         <v>0.57692307692307687</v>
       </c>
-      <c r="N13" s="53"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
         <v>21</v>
       </c>
@@ -3005,9 +2998,8 @@
         <f t="shared" si="4"/>
         <v>1.09375</v>
       </c>
-      <c r="N14" s="53"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>22</v>
       </c>
@@ -3054,9 +3046,8 @@
         <f t="shared" si="4"/>
         <v>1.2727272727272727</v>
       </c>
-      <c r="N15" s="53"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>23</v>
       </c>
@@ -3103,9 +3094,8 @@
         <f t="shared" si="4"/>
         <v>1.7924528301886793</v>
       </c>
-      <c r="N16" s="53"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>24</v>
       </c>
@@ -3152,9 +3142,8 @@
         <f t="shared" si="4"/>
         <v>1.9512195121951221</v>
       </c>
-      <c r="N17" s="53"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
         <v>25</v>
       </c>
@@ -3201,9 +3190,8 @@
         <f t="shared" si="4"/>
         <v>1.1904761904761905</v>
       </c>
-      <c r="N18" s="53"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>26</v>
       </c>
@@ -3250,9 +3238,8 @@
         <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
-      <c r="N19" s="53"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
         <v>41</v>
       </c>
@@ -3268,7 +3255,6 @@
       <c r="K20" s="20"/>
       <c r="L20" s="23"/>
       <c r="M20" s="20"/>
-      <c r="N20" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3280,9 +3266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADB7D10-4870-495F-A707-BBC534BD9265}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -3299,7 +3283,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3312,10 +3296,9 @@
     <col min="6" max="6" width="10.77734375" style="13" customWidth="1"/>
     <col min="7" max="8" width="24.44140625" style="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3343,11 +3326,8 @@
       <c r="I1" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>28</v>
@@ -3367,9 +3347,8 @@
       <c r="I2" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="53"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
         <v>18</v>
@@ -3389,9 +3368,8 @@
       <c r="I3" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="53"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
         <v>19</v>
@@ -3411,9 +3389,8 @@
       <c r="I4" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="53"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
         <v>20</v>
@@ -3433,9 +3410,8 @@
       <c r="I5" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="53"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
         <v>21</v>
@@ -3455,9 +3431,8 @@
       <c r="I6" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="53"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
         <v>22</v>
@@ -3477,9 +3452,8 @@
       <c r="I7" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="J7" s="53"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
         <v>23</v>
@@ -3499,9 +3473,8 @@
       <c r="I8" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="53"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
         <v>24</v>
@@ -3521,9 +3494,8 @@
       <c r="I9" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="J9" s="53"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>45769</v>
       </c>
@@ -3552,9 +3524,8 @@
       <c r="I10" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="J10" s="53"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>45776</v>
       </c>
@@ -3583,9 +3554,8 @@
       <c r="I11" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="53"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>45782</v>
       </c>
@@ -3614,9 +3584,8 @@
       <c r="I12" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="J12" s="53"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>45789</v>
       </c>
@@ -3645,35 +3614,19 @@
       <c r="I13" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="53"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J14" s="53"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J15" s="53"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J16" s="53"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="J17" s="53"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="J18" s="53"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
-      <c r="J19" s="53"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I20" s="8"/>
-      <c r="J20" s="53"/>
+      <c r="J20" s="8"/>
       <c r="K20" s="8"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
       <c r="K21" s="8"/>
     </row>
   </sheetData>
@@ -3689,11 +3642,11 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3704,10 +3657,9 @@
     <col min="4" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3732,11 +3684,8 @@
       <c r="H1" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>45776</v>
       </c>
@@ -3763,9 +3712,8 @@
       <c r="H2" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="53"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>45782</v>
       </c>
@@ -3792,9 +3740,8 @@
       <c r="H3" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="I3" s="53"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>45789</v>
       </c>
@@ -3802,17 +3749,17 @@
         <v>109</v>
       </c>
       <c r="C4" s="12">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" s="12">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="E4" s="17">
         <v>1</v>
       </c>
       <c r="F4" s="41">
         <f>1-(C4/D4)</f>
-        <v>0.9275147928994083</v>
+        <v>0.9255474452554745</v>
       </c>
       <c r="G4" s="42">
         <v>1</v>
@@ -3820,55 +3767,6 @@
       <c r="H4" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="53"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I5" s="53"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I6" s="53"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I7" s="53"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I8" s="53"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I9" s="53"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I10" s="53"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I11" s="53"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I12" s="53"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I13" s="53"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I14" s="53"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I15" s="53"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I16" s="53"/>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I17" s="53"/>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I18" s="53"/>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I19" s="53"/>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I20" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3880,11 +3778,11 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3893,10 +3791,9 @@
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="4" width="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3912,11 +3809,8 @@
       <c r="E1" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>45776</v>
       </c>
@@ -3933,9 +3827,8 @@
       <c r="E2" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="53"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>45782</v>
       </c>
@@ -3952,9 +3845,8 @@
       <c r="E3" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="53"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>45789</v>
       </c>
@@ -3970,55 +3862,6 @@
       <c r="E4" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="53"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F5" s="53"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F6" s="53"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F7" s="53"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F8" s="53"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F9" s="53"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F10" s="53"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F11" s="53"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F12" s="53"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F13" s="53"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F14" s="53"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F15" s="53"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F16" s="53"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" s="53"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F18" s="53"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F19" s="53"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F20" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4030,11 +3873,11 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4044,10 +3887,9 @@
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="36" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4063,11 +3905,8 @@
       <c r="E1" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>45660</v>
       </c>
@@ -4083,11 +3922,8 @@
       <c r="E2" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="53" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>45663</v>
       </c>
@@ -4103,9 +3939,8 @@
       <c r="E3" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="53"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>45670</v>
       </c>
@@ -4121,9 +3956,8 @@
       <c r="E4" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="53"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>45677</v>
       </c>
@@ -4139,9 +3973,8 @@
       <c r="E5" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="53"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>45691</v>
       </c>
@@ -4157,9 +3990,8 @@
       <c r="E6" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="53"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>45700</v>
       </c>
@@ -4175,9 +4007,8 @@
       <c r="E7" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="53"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>45707</v>
       </c>
@@ -4193,9 +4024,8 @@
       <c r="E8" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="53"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>45712</v>
       </c>
@@ -4211,9 +4041,8 @@
       <c r="E9" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="53"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>45722</v>
       </c>
@@ -4230,9 +4059,8 @@
       <c r="E10" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="53"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>45726</v>
       </c>
@@ -4249,9 +4077,8 @@
       <c r="E11" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="53"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>45735</v>
       </c>
@@ -4268,9 +4095,8 @@
       <c r="E12" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="53"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>45742</v>
       </c>
@@ -4287,9 +4113,8 @@
       <c r="E13" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="53"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>45747</v>
       </c>
@@ -4306,9 +4131,8 @@
       <c r="E14" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="53"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>45756</v>
       </c>
@@ -4325,9 +4149,8 @@
       <c r="E15" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="53"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>45763</v>
       </c>
@@ -4344,9 +4167,8 @@
       <c r="E16" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="53"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>45769</v>
       </c>
@@ -4363,9 +4185,8 @@
       <c r="E17" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="53"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>45776</v>
       </c>
@@ -4382,9 +4203,8 @@
       <c r="E18" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="53"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>45782</v>
       </c>
@@ -4401,9 +4221,8 @@
       <c r="E19" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="53"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>45789</v>
       </c>
@@ -4419,9 +4238,6 @@
       </c>
       <c r="E20" s="45" t="s">
         <v>106</v>
-      </c>
-      <c r="F20" s="53" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4435,11 +4251,11 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4449,10 +4265,9 @@
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.88671875" style="37" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4468,11 +4283,8 @@
       <c r="E1" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>45660</v>
       </c>
@@ -4488,11 +4300,8 @@
       <c r="E2" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="53" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>45663</v>
       </c>
@@ -4508,9 +4317,8 @@
       <c r="E3" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="53"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>45670</v>
       </c>
@@ -4526,9 +4334,8 @@
       <c r="E4" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="53"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>45677</v>
       </c>
@@ -4544,9 +4351,8 @@
       <c r="E5" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="53"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>45691</v>
       </c>
@@ -4562,9 +4368,8 @@
       <c r="E6" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="53"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>45700</v>
       </c>
@@ -4580,9 +4385,8 @@
       <c r="E7" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="53"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>45707</v>
       </c>
@@ -4598,9 +4402,8 @@
       <c r="E8" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="53"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>45712</v>
       </c>
@@ -4616,9 +4419,8 @@
       <c r="E9" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="53"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>45722</v>
       </c>
@@ -4635,9 +4437,8 @@
       <c r="E10" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="53"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>45726</v>
       </c>
@@ -4654,9 +4455,8 @@
       <c r="E11" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="53"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>45735</v>
       </c>
@@ -4673,9 +4473,8 @@
       <c r="E12" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="53"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>45742</v>
       </c>
@@ -4692,9 +4491,8 @@
       <c r="E13" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="53"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>45747</v>
       </c>
@@ -4711,9 +4509,8 @@
       <c r="E14" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="53"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>45756</v>
       </c>
@@ -4730,9 +4527,8 @@
       <c r="E15" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="53"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>45763</v>
       </c>
@@ -4749,9 +4545,8 @@
       <c r="E16" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="53"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>45769</v>
       </c>
@@ -4768,9 +4563,8 @@
       <c r="E17" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="53"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>45776</v>
       </c>
@@ -4787,9 +4581,8 @@
       <c r="E18" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="53"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>45782</v>
       </c>
@@ -4806,9 +4599,8 @@
       <c r="E19" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="53"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>45789</v>
       </c>
@@ -4824,9 +4616,6 @@
       </c>
       <c r="E20" s="45" t="s">
         <v>106</v>
-      </c>
-      <c r="F20" s="53" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4839,10 +4628,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4851,10 +4640,9 @@
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5546875" customWidth="1"/>
     <col min="5" max="5" width="25.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4870,11 +4658,8 @@
       <c r="E1" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>45658</v>
       </c>
@@ -4890,9 +4675,8 @@
       <c r="E2" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="53"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>45689</v>
       </c>
@@ -4908,9 +4692,8 @@
       <c r="E3" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="53"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>45717</v>
       </c>
@@ -4926,9 +4709,8 @@
       <c r="E4" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="53"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>45748</v>
       </c>
@@ -4944,52 +4726,6 @@
       <c r="E5" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="53"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F6" s="53"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F7" s="53"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F8" s="53"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F9" s="53"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F10" s="53"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F11" s="53"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F12" s="53"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F13" s="53"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F14" s="53"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F15" s="53"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F16" s="53"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" s="53"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F18" s="53"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F19" s="53"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F20" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5001,11 +4737,11 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5015,10 +4751,9 @@
     <col min="3" max="3" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="23.21875" customWidth="1"/>
     <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
@@ -5037,11 +4772,8 @@
       <c r="F1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>60</v>
       </c>
@@ -5060,9 +4792,8 @@
       <c r="F2" s="28">
         <v>1</v>
       </c>
-      <c r="G2" s="53"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>61</v>
       </c>
@@ -5081,9 +4812,8 @@
       <c r="F3" s="28">
         <v>1</v>
       </c>
-      <c r="G3" s="53"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>62</v>
       </c>
@@ -5102,9 +4832,8 @@
       <c r="F4" s="28">
         <v>1</v>
       </c>
-      <c r="G4" s="53"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>63</v>
       </c>
@@ -5123,9 +4852,8 @@
       <c r="F5" s="28">
         <v>1</v>
       </c>
-      <c r="G5" s="53"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>64</v>
       </c>
@@ -5144,9 +4872,8 @@
       <c r="F6" s="28">
         <v>1</v>
       </c>
-      <c r="G6" s="53"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>65</v>
       </c>
@@ -5165,9 +4892,8 @@
       <c r="F7" s="28">
         <v>1</v>
       </c>
-      <c r="G7" s="53"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>66</v>
       </c>
@@ -5186,9 +4912,8 @@
       <c r="F8" s="28">
         <v>1</v>
       </c>
-      <c r="G8" s="53"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>67</v>
       </c>
@@ -5207,9 +4932,8 @@
       <c r="F9" s="28">
         <v>1</v>
       </c>
-      <c r="G9" s="53"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>68</v>
       </c>
@@ -5228,9 +4952,8 @@
       <c r="F10" s="28">
         <v>1</v>
       </c>
-      <c r="G10" s="53"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>69</v>
       </c>
@@ -5249,9 +4972,8 @@
       <c r="F11" s="28">
         <v>1</v>
       </c>
-      <c r="G11" s="53"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>70</v>
       </c>
@@ -5270,9 +4992,8 @@
       <c r="F12" s="28">
         <v>1</v>
       </c>
-      <c r="G12" s="53"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>71</v>
       </c>
@@ -5291,9 +5012,8 @@
       <c r="F13" s="28">
         <v>1</v>
       </c>
-      <c r="G13" s="53"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>72</v>
       </c>
@@ -5312,9 +5032,8 @@
       <c r="F14" s="28">
         <v>1</v>
       </c>
-      <c r="G14" s="53"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>73</v>
       </c>
@@ -5333,9 +5052,8 @@
       <c r="F15" s="28">
         <v>1</v>
       </c>
-      <c r="G15" s="53"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>74</v>
       </c>
@@ -5354,9 +5072,8 @@
       <c r="F16" s="28">
         <v>1</v>
       </c>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>75</v>
       </c>
@@ -5375,9 +5092,8 @@
       <c r="F17" s="28">
         <v>1</v>
       </c>
-      <c r="G17" s="53"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>76</v>
       </c>
@@ -5396,9 +5112,8 @@
       <c r="F18" s="28">
         <v>1</v>
       </c>
-      <c r="G18" s="53"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>77</v>
       </c>
@@ -5417,9 +5132,8 @@
       <c r="F19" s="28">
         <v>1</v>
       </c>
-      <c r="G19" s="53"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>78</v>
       </c>
@@ -5438,9 +5152,8 @@
       <c r="F20" s="28">
         <v>1</v>
       </c>
-      <c r="G20" s="53"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>79</v>
       </c>
@@ -5460,7 +5173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>80</v>
       </c>
@@ -5480,7 +5193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>81</v>
       </c>
@@ -5500,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>82</v>
       </c>
@@ -5520,7 +5233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>83</v>
       </c>
@@ -5540,7 +5253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>84</v>
       </c>
@@ -5560,7 +5273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>85</v>
       </c>
@@ -5580,7 +5293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>86</v>
       </c>
@@ -5600,7 +5313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>87</v>
       </c>
@@ -5620,7 +5333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>88</v>
       </c>
@@ -5640,7 +5353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>89</v>
       </c>
@@ -5660,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>34</v>
       </c>
@@ -6000,7 +5713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>26</v>
       </c>
@@ -6021,7 +5734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>41</v>
       </c>
@@ -6040,9 +5753,6 @@
       </c>
       <c r="F50" s="28">
         <v>1</v>
-      </c>
-      <c r="G50" s="54" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -6055,11 +5765,11 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6069,10 +5779,9 @@
     <col min="3" max="5" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.21875" customWidth="1"/>
     <col min="7" max="8" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
@@ -6097,11 +5806,8 @@
       <c r="H1" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>60</v>
       </c>
@@ -6116,9 +5822,8 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="53"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>61</v>
       </c>
@@ -6133,9 +5838,8 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="53"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>62</v>
       </c>
@@ -6150,9 +5854,8 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="53"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>63</v>
       </c>
@@ -6167,9 +5870,8 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="53"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>64</v>
       </c>
@@ -6184,9 +5886,8 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="53"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>65</v>
       </c>
@@ -6201,9 +5902,8 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="53"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>66</v>
       </c>
@@ -6218,9 +5918,8 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="53"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>67</v>
       </c>
@@ -6235,9 +5934,8 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="53"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>68</v>
       </c>
@@ -6252,9 +5950,8 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="53"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>69</v>
       </c>
@@ -6269,9 +5966,8 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="53"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>70</v>
       </c>
@@ -6286,9 +5982,8 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="53"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>71</v>
       </c>
@@ -6303,9 +5998,8 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="53"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>72</v>
       </c>
@@ -6320,9 +6014,8 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="53"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>73</v>
       </c>
@@ -6337,9 +6030,8 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="53"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -6354,9 +6046,8 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="53"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>75</v>
       </c>
@@ -6371,9 +6062,8 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="53"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>76</v>
       </c>
@@ -6388,9 +6078,8 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="53"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -6405,9 +6094,8 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="53"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>78</v>
       </c>
@@ -6422,9 +6110,8 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="53"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>79</v>
       </c>
@@ -6440,7 +6127,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>80</v>
       </c>
@@ -6456,7 +6143,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>81</v>
       </c>
@@ -6472,7 +6159,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>82</v>
       </c>
@@ -6488,7 +6175,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>83</v>
       </c>
@@ -6504,7 +6191,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>84</v>
       </c>
@@ -6520,7 +6207,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>85</v>
       </c>
@@ -6536,7 +6223,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>86</v>
       </c>
@@ -6552,7 +6239,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>87</v>
       </c>
@@ -6568,7 +6255,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>88</v>
       </c>
@@ -6584,7 +6271,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>89</v>
       </c>
@@ -6600,7 +6287,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>34</v>
       </c>
@@ -6907,4 +6594,257 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E6A46EF3934B6A4F80D5E3E07DABB9BE" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2786f35b2066781593a9c00935c9e7db">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="46456448-3e6f-4693-b60d-2caaf7d50d74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f18ab6aa30a2f4f9853c995b9cf1e46" ns3:_="">
+    <xsd:import namespace="46456448-3e6f-4693-b60d-2caaf7d50d74"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="46456448-3e6f-4693-b60d-2caaf7d50d74" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceDateTaken" ma:index="8" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="13" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="17" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="46456448-3e6f-4693-b60d-2caaf7d50d74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B11B2690-400D-40BB-99F9-4A5A8FC4FFCD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16F70A4C-2D0F-46C0-8227-B99013FADA1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="46456448-3e6f-4693-b60d-2caaf7d50d74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{178C4AF9-5176-4DDE-8809-0E796128CF7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="46456448-3e6f-4693-b60d-2caaf7d50d74"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/historico_recap.xlsx
+++ b/historico_recap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/pedro_klauber_prestserv_petrobras_com_br1/Documents/C3/Programação/python/Automações RECAP/Indicadores/Novo projeto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{7429B5BA-055C-496B-8031-57E3B212E6F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4691169D-74BB-464D-81ED-419CC3E86BA5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F95232A5-8309-4B07-8D82-BD3D10B351CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="10" xr2:uid="{764A3B1C-4385-41E0-85B9-B2E5043E601B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="956" activeTab="1" xr2:uid="{764A3B1C-4385-41E0-85B9-B2E5043E601B}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTA DE INDICADORES" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="130">
   <si>
     <t>DATA</t>
   </si>
@@ -421,17 +421,36 @@
   </si>
   <si>
     <t>EM CAMPO (LINEAR)</t>
+  </si>
+  <si>
+    <t>Mês</t>
+  </si>
+  <si>
+    <t>jan 2025</t>
+  </si>
+  <si>
+    <t>2025.21</t>
+  </si>
+  <si>
+    <t>fev 2025</t>
+  </si>
+  <si>
+    <t>mar 2025</t>
+  </si>
+  <si>
+    <t>abr 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -594,7 +613,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -715,6 +734,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1059,7 +1082,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1100,7 +1123,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="50">
-        <v>45789</v>
+        <v>45796</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1115,7 +1138,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="50">
-        <v>45789</v>
+        <v>45796</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1128,7 +1151,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="50">
-        <v>45789</v>
+        <v>45796</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1143,7 +1166,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="50">
-        <v>45789</v>
+        <v>45796</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1158,7 +1181,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="50">
-        <v>45789</v>
+        <v>45796</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1170,7 +1193,9 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="50"/>
+      <c r="E7" s="50">
+        <v>45796</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1183,9 +1208,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="51">
-        <v>45789</v>
-      </c>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -1199,7 +1222,7 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="51">
-        <v>45789</v>
+        <v>45796</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1214,7 +1237,7 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="51">
-        <v>45789</v>
+        <v>45796</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1227,7 +1250,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="51">
-        <v>45789</v>
+        <v>45796</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1291,11 +1314,11 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1932,6 +1955,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="17">
+        <v>1</v>
+      </c>
+      <c r="C58" s="17">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1942,11 +1976,11 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1961,8 +1995,8 @@
     <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -2034,9 +2068,9 @@
       <c r="J2">
         <v>23665.900000000005</v>
       </c>
-      <c r="K2">
-        <f>0.3*J2</f>
-        <v>7099.7700000000013</v>
+      <c r="K2" s="52">
+        <f>H2/J2</f>
+        <v>0.30136187510299622</v>
       </c>
       <c r="L2">
         <f>J2-H2</f>
@@ -2074,12 +2108,12 @@
       <c r="J3">
         <v>23665.900000000005</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K8" si="0">0.3*J3</f>
-        <v>7099.7700000000013</v>
+      <c r="K3" s="52">
+        <f t="shared" ref="K3:K9" si="0">H3/J3</f>
+        <v>0.31164248982713516</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L8" si="1">J3-H3</f>
+        <f t="shared" ref="L3:L9" si="1">J3-H3</f>
         <v>16290.600000000006</v>
       </c>
     </row>
@@ -2114,9 +2148,9 @@
       <c r="J4">
         <v>23665.900000000005</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="52">
         <f t="shared" si="0"/>
-        <v>7099.7700000000013</v>
+        <v>0.30894916314190457</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
@@ -2154,9 +2188,9 @@
       <c r="J5">
         <v>23665.900000000005</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="52">
         <f t="shared" si="0"/>
-        <v>7099.7700000000013</v>
+        <v>0.32496249878517186</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
@@ -2194,9 +2228,9 @@
       <c r="J6">
         <v>23665.900000000005</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="52">
         <f t="shared" si="0"/>
-        <v>7099.7700000000013</v>
+        <v>0.34825423922183385</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
@@ -2234,9 +2268,9 @@
       <c r="J7">
         <v>23665.900000000005</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="52">
         <f t="shared" si="0"/>
-        <v>7099.7700000000013</v>
+        <v>0.26436645130757752</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
@@ -2274,13 +2308,53 @@
       <c r="J8">
         <v>23665.900000000005</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="52">
         <f t="shared" si="0"/>
-        <v>7099.7700000000013</v>
+        <v>0.35837555301087215</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
         <v>15184.620000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>45796</v>
+      </c>
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9">
+        <v>7937.5</v>
+      </c>
+      <c r="D9">
+        <v>630.41</v>
+      </c>
+      <c r="E9">
+        <v>1062</v>
+      </c>
+      <c r="F9">
+        <v>93</v>
+      </c>
+      <c r="G9">
+        <v>8083</v>
+      </c>
+      <c r="H9">
+        <v>8567.91</v>
+      </c>
+      <c r="I9">
+        <v>9238</v>
+      </c>
+      <c r="J9">
+        <v>23665.900000000005</v>
+      </c>
+      <c r="K9" s="52">
+        <f t="shared" si="0"/>
+        <v>0.36203609412699278</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>15097.990000000005</v>
       </c>
     </row>
   </sheetData>
@@ -3281,9 +3355,9 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3615,6 +3689,35 @@
         <v>107</v>
       </c>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>45796</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="12">
+        <v>292</v>
+      </c>
+      <c r="D14" s="12">
+        <v>8</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="43">
+        <v>1</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="H14" s="41">
+        <v>1</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>107</v>
+      </c>
+    </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
     </row>
@@ -3642,11 +3745,11 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3768,6 +3871,33 @@
         <v>107</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>45796</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="12">
+        <v>8</v>
+      </c>
+      <c r="D5" s="12">
+        <v>662</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="41">
+        <f>1-(C5/D5)</f>
+        <v>0.98791540785498488</v>
+      </c>
+      <c r="G5" s="42">
+        <v>1</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3778,11 +3908,11 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3863,6 +3993,23 @@
         <v>106</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>45796</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="12">
+        <v>8</v>
+      </c>
+      <c r="D5" s="40">
+        <v>10</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3873,11 +4020,11 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4047,7 +4194,7 @@
         <v>45722</v>
       </c>
       <c r="B10" s="45" t="str">
-        <f t="shared" ref="B10:B20" si="0">CONCATENATE(YEAR(A10),".",_xlfn.ISOWEEKNUM(A10))</f>
+        <f t="shared" ref="B10:B21" si="0">CONCATENATE(YEAR(A10),".",_xlfn.ISOWEEKNUM(A10))</f>
         <v>2025.10</v>
       </c>
       <c r="C10" s="12">
@@ -4237,6 +4384,24 @@
         <v>50</v>
       </c>
       <c r="E20" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>45796</v>
+      </c>
+      <c r="B21" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>2025.21</v>
+      </c>
+      <c r="C21" s="12">
+        <v>96</v>
+      </c>
+      <c r="D21" s="35">
+        <v>50</v>
+      </c>
+      <c r="E21" s="45" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4251,11 +4416,11 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4587,7 +4752,7 @@
         <v>45782</v>
       </c>
       <c r="B19" s="11" t="str">
-        <f t="shared" ref="B19:B20" si="1">CONCATENATE(YEAR(A19),".",_xlfn.ISOWEEKNUM(A19))</f>
+        <f t="shared" ref="B19:B21" si="1">CONCATENATE(YEAR(A19),".",_xlfn.ISOWEEKNUM(A19))</f>
         <v>2025.19</v>
       </c>
       <c r="C19" s="12">
@@ -4615,6 +4780,24 @@
         <v>20</v>
       </c>
       <c r="E20" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>45796</v>
+      </c>
+      <c r="B21" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>2025.21</v>
+      </c>
+      <c r="C21" s="12">
+        <v>39</v>
+      </c>
+      <c r="D21" s="35">
+        <v>20</v>
+      </c>
+      <c r="E21" s="45" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4631,7 +4814,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4647,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>110</v>
@@ -4663,8 +4846,8 @@
       <c r="A2" s="10">
         <v>45658</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>34</v>
+      <c r="B2" s="53" t="s">
+        <v>125</v>
       </c>
       <c r="C2" s="20">
         <v>0.82889999999999997</v>
@@ -4680,8 +4863,8 @@
       <c r="A3" s="10">
         <v>45689</v>
       </c>
-      <c r="B3" s="45" t="s">
-        <v>35</v>
+      <c r="B3" s="53" t="s">
+        <v>127</v>
       </c>
       <c r="C3" s="20">
         <v>0.83160000000000001</v>
@@ -4697,8 +4880,8 @@
       <c r="A4" s="10">
         <v>45717</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>36</v>
+      <c r="B4" s="53" t="s">
+        <v>128</v>
       </c>
       <c r="C4" s="20">
         <v>0.83289999999999997</v>
@@ -4714,8 +4897,8 @@
       <c r="A5" s="10">
         <v>45748</v>
       </c>
-      <c r="B5" s="45" t="s">
-        <v>37</v>
+      <c r="B5" s="53" t="s">
+        <v>129</v>
       </c>
       <c r="C5" s="20">
         <v>0.87139999999999995</v>
@@ -4737,11 +4920,11 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5755,6 +5938,27 @@
         <v>1</v>
       </c>
     </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="12">
+        <v>718</v>
+      </c>
+      <c r="C51" s="12">
+        <v>81</v>
+      </c>
+      <c r="D51" s="20">
+        <f>C51/B51</f>
+        <v>0.11281337047353761</v>
+      </c>
+      <c r="E51" s="20">
+        <v>1.0506</v>
+      </c>
+      <c r="F51" s="28">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5765,11 +5969,11 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6591,18 +6795,33 @@
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
     </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="12">
+        <v>4.04</v>
+      </c>
+      <c r="C51" s="12">
+        <v>10</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="46456448-3e6f-4693-b60d-2caaf7d50d74" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6800,17 +7019,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="46456448-3e6f-4693-b60d-2caaf7d50d74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B11B2690-400D-40BB-99F9-4A5A8FC4FFCD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{178C4AF9-5176-4DDE-8809-0E796128CF7C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="46456448-3e6f-4693-b60d-2caaf7d50d74"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6834,17 +7062,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{178C4AF9-5176-4DDE-8809-0E796128CF7C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B11B2690-400D-40BB-99F9-4A5A8FC4FFCD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="46456448-3e6f-4693-b60d-2caaf7d50d74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/historico_recap.xlsx
+++ b/historico_recap.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/pedro_klauber_prestserv_petrobras_com_br1/Documents/C3/Programação/python/Automações RECAP/Indicadores/Novo projeto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/pedro_klauber_prestserv_petrobras_com_br1/Documents/C3/Banco de dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F95232A5-8309-4B07-8D82-BD3D10B351CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1029" documentId="8_{CC12F0BA-7BC6-493E-83E4-E071F8399D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8153AD52-7728-4F25-ACB3-177180ED0387}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="956" activeTab="1" xr2:uid="{764A3B1C-4385-41E0-85B9-B2E5043E601B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="10" xr2:uid="{764A3B1C-4385-41E0-85B9-B2E5043E601B}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTA DE INDICADORES" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="126">
   <si>
     <t>DATA</t>
   </si>
@@ -417,28 +417,16 @@
     <t>Mínimo</t>
   </si>
   <si>
-    <t>IVENTARIO (LINEAR)</t>
-  </si>
-  <si>
-    <t>EM CAMPO (LINEAR)</t>
-  </si>
-  <si>
-    <t>Mês</t>
-  </si>
-  <si>
-    <t>jan 2025</t>
+    <t>Iventario (linear)</t>
+  </si>
+  <si>
+    <t>Em Campo (linear)</t>
   </si>
   <si>
     <t>2025.21</t>
   </si>
   <si>
-    <t>fev 2025</t>
-  </si>
-  <si>
-    <t>mar 2025</t>
-  </si>
-  <si>
-    <t>abr 2025</t>
+    <t>2025.22</t>
   </si>
 </sst>
 </file>
@@ -613,7 +601,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -737,9 +725,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1076,25 +1061,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8343F44F-676A-4A00-AF72-F68365C93302}">
-  <sheetPr>
+  <sheetPr codeName="Planilha1">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="13"/>
-    <col min="3" max="3" width="9.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="13"/>
+    <col min="3" max="3" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1111,7 +1096,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1123,10 +1108,10 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="50">
-        <v>45796</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1138,10 +1123,10 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="50">
-        <v>45796</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1151,10 +1136,10 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="50">
-        <v>45796</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1166,10 +1151,10 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="50">
-        <v>45796</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1181,10 +1166,10 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="50">
-        <v>45796</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1193,11 +1178,9 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="50">
-        <v>45796</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="50"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1208,9 +1191,11 @@
         <v>7</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="51"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="51">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1222,10 +1207,10 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="51">
-        <v>45796</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1237,10 +1222,10 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="51">
-        <v>45796</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1250,10 +1235,10 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="51">
-        <v>45796</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>14</v>
       </c>
@@ -1264,7 +1249,7 @@
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>48</v>
       </c>
@@ -1277,7 +1262,7 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>99</v>
       </c>
@@ -1286,7 +1271,7 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>100</v>
       </c>
@@ -1295,7 +1280,7 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>101</v>
       </c>
@@ -1311,24 +1296,24 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7466E180-5CF9-471E-B750-9DE2051A5EE9}">
-  <sheetPr>
+  <sheetPr codeName="Planilha10">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
@@ -1339,7 +1324,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>60</v>
       </c>
@@ -1350,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>61</v>
       </c>
@@ -1361,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>62</v>
       </c>
@@ -1372,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>63</v>
       </c>
@@ -1383,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>64</v>
       </c>
@@ -1394,7 +1379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>65</v>
       </c>
@@ -1405,7 +1390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>66</v>
       </c>
@@ -1416,7 +1401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>67</v>
       </c>
@@ -1427,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>68</v>
       </c>
@@ -1438,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>69</v>
       </c>
@@ -1449,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>70</v>
       </c>
@@ -1460,7 +1445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>71</v>
       </c>
@@ -1471,7 +1456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>72</v>
       </c>
@@ -1482,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>73</v>
       </c>
@@ -1493,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -1504,7 +1489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>75</v>
       </c>
@@ -1515,7 +1500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>76</v>
       </c>
@@ -1526,7 +1511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -1537,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>78</v>
       </c>
@@ -1548,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>79</v>
       </c>
@@ -1559,7 +1544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>80</v>
       </c>
@@ -1570,7 +1555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>81</v>
       </c>
@@ -1581,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>82</v>
       </c>
@@ -1592,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>83</v>
       </c>
@@ -1603,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>84</v>
       </c>
@@ -1614,7 +1599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>84</v>
       </c>
@@ -1625,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>84</v>
       </c>
@@ -1636,7 +1621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>84</v>
       </c>
@@ -1647,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>84</v>
       </c>
@@ -1658,7 +1643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>84</v>
       </c>
@@ -1669,7 +1654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>84</v>
       </c>
@@ -1680,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>85</v>
       </c>
@@ -1691,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>86</v>
       </c>
@@ -1702,7 +1687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>86</v>
       </c>
@@ -1713,7 +1698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>87</v>
       </c>
@@ -1724,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>88</v>
       </c>
@@ -1735,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>89</v>
       </c>
@@ -1746,7 +1731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>34</v>
       </c>
@@ -1757,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>35</v>
       </c>
@@ -1768,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>36</v>
       </c>
@@ -1779,7 +1764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>37</v>
       </c>
@@ -1790,7 +1775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>38</v>
       </c>
@@ -1801,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>39</v>
       </c>
@@ -1812,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>40</v>
       </c>
@@ -1823,7 +1808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>27</v>
       </c>
@@ -1834,7 +1819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>28</v>
       </c>
@@ -1845,7 +1830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>18</v>
       </c>
@@ -1856,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>19</v>
       </c>
@@ -1867,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>20</v>
       </c>
@@ -1878,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>21</v>
       </c>
@@ -1889,7 +1874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="29" t="s">
         <v>22</v>
       </c>
@@ -1900,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="29" t="s">
         <v>23</v>
       </c>
@@ -1911,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>24</v>
       </c>
@@ -1922,7 +1907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>25</v>
       </c>
@@ -1933,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>26</v>
       </c>
@@ -1944,7 +1929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>41</v>
       </c>
@@ -1955,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
         <v>109</v>
       </c>
@@ -1973,33 +1958,33 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BEFC0C-BAC3-42AE-B98B-AB4094C62A77}">
-  <sheetPr>
+  <sheetPr codeName="Planilha11">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -2037,7 +2022,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>45722</v>
       </c>
@@ -2077,7 +2062,7 @@
         <v>16533.900000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>45727</v>
       </c>
@@ -2117,7 +2102,7 @@
         <v>16290.600000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>45740</v>
       </c>
@@ -2157,7 +2142,7 @@
         <v>16354.340000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>45748</v>
       </c>
@@ -2197,7 +2182,7 @@
         <v>15975.370000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>45770</v>
       </c>
@@ -2237,7 +2222,7 @@
         <v>15424.150000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>45776</v>
       </c>
@@ -2277,7 +2262,7 @@
         <v>17409.430000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>45789</v>
       </c>
@@ -2317,44 +2302,44 @@
         <v>15184.620000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>45796</v>
+        <v>45804</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9">
-        <v>7937.5</v>
+        <v>8164</v>
       </c>
       <c r="D9">
-        <v>630.41</v>
+        <v>664.59</v>
       </c>
       <c r="E9">
-        <v>1062</v>
+        <v>1072</v>
       </c>
       <c r="F9">
         <v>93</v>
       </c>
       <c r="G9">
-        <v>8083</v>
+        <v>8020</v>
       </c>
       <c r="H9">
-        <v>8567.91</v>
+        <v>8828.59</v>
       </c>
       <c r="I9">
-        <v>9238</v>
+        <v>9185</v>
       </c>
       <c r="J9">
         <v>23665.900000000005</v>
       </c>
       <c r="K9" s="52">
         <f t="shared" si="0"/>
-        <v>0.36203609412699278</v>
+        <v>0.37305109883841298</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>15097.990000000005</v>
+        <v>14837.310000000005</v>
       </c>
     </row>
   </sheetData>
@@ -2364,7 +2349,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9D0639-71B7-45B7-9203-7F3AABBADBDE}">
-  <sheetPr>
+  <sheetPr codeName="Planilha12">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -2373,7 +2358,7 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2381,7 +2366,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A85988-7493-4D0F-A85E-51CDB2F8A440}">
-  <sheetPr>
+  <sheetPr codeName="Planilha13">
     <tabColor theme="8"/>
   </sheetPr>
   <dimension ref="A1:M20"/>
@@ -2393,22 +2378,22 @@
       <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
@@ -2449,7 +2434,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>34</v>
       </c>
@@ -2497,7 +2482,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>35</v>
       </c>
@@ -2545,7 +2530,7 @@
         <v>1.1538461538461537</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>36</v>
       </c>
@@ -2593,7 +2578,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>37</v>
       </c>
@@ -2641,7 +2626,7 @@
         <v>1.3888888888888888</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>38</v>
       </c>
@@ -2689,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>39</v>
       </c>
@@ -2737,7 +2722,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>40</v>
       </c>
@@ -2785,7 +2770,7 @@
         <v>1.1363636363636362</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>27</v>
       </c>
@@ -2833,7 +2818,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>28</v>
       </c>
@@ -2881,7 +2866,7 @@
         <v>0.57377049180327877</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>18</v>
       </c>
@@ -2929,7 +2914,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>19</v>
       </c>
@@ -2977,7 +2962,7 @@
         <v>0.61224489795918358</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>20</v>
       </c>
@@ -3025,7 +3010,7 @@
         <v>0.57692307692307687</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
         <v>21</v>
       </c>
@@ -3073,7 +3058,7 @@
         <v>1.09375</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
         <v>22</v>
       </c>
@@ -3121,7 +3106,7 @@
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
         <v>23</v>
       </c>
@@ -3169,7 +3154,7 @@
         <v>1.7924528301886793</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>24</v>
       </c>
@@ -3217,7 +3202,7 @@
         <v>1.9512195121951221</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>25</v>
       </c>
@@ -3265,7 +3250,7 @@
         <v>1.1904761904761905</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>26</v>
       </c>
@@ -3313,7 +3298,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>41</v>
       </c>
@@ -3338,11 +3323,12 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADB7D10-4870-495F-A707-BBC534BD9265}">
+  <sheetPr codeName="Planilha14"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3350,29 +3336,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAD75C4-F604-4217-821E-DBC896990EE5}">
-  <sheetPr>
+  <sheetPr codeName="Planilha2">
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="13" customWidth="1"/>
-    <col min="7" max="8" width="24.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="13" customWidth="1"/>
+    <col min="7" max="8" width="24.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3401,7 +3387,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>28</v>
@@ -3422,7 +3408,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
         <v>18</v>
@@ -3443,7 +3429,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
         <v>19</v>
@@ -3464,7 +3450,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
         <v>20</v>
@@ -3485,7 +3471,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
         <v>21</v>
@@ -3506,7 +3492,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
         <v>22</v>
@@ -3527,7 +3513,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
         <v>23</v>
@@ -3548,7 +3534,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
         <v>24</v>
@@ -3569,7 +3555,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>45769</v>
       </c>
@@ -3599,7 +3585,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>45776</v>
       </c>
@@ -3629,7 +3615,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>45782</v>
       </c>
@@ -3659,7 +3645,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>45789</v>
       </c>
@@ -3689,15 +3675,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>45796</v>
+        <v>45801</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="12">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D14" s="12">
         <v>8</v>
@@ -3709,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="20">
-        <v>0.98340000000000005</v>
+        <v>0.98529999999999995</v>
       </c>
       <c r="H14" s="41">
         <v>1</v>
@@ -3718,15 +3704,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -3742,27 +3728,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA64F8B4-D065-456E-B591-FFF4E4DF4FAD}">
-  <sheetPr>
+  <sheetPr codeName="Planilha3">
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3788,7 +3774,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>45776</v>
       </c>
@@ -3816,7 +3802,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>45782</v>
       </c>
@@ -3844,7 +3830,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>45789</v>
       </c>
@@ -3871,25 +3857,25 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>45796</v>
+        <v>45804</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D5" s="12">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
       </c>
       <c r="F5" s="41">
         <f>1-(C5/D5)</f>
-        <v>0.98791540785498488</v>
+        <v>0.99392097264437695</v>
       </c>
       <c r="G5" s="42">
         <v>1</v>
@@ -3905,25 +3891,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD810E3-649C-4936-A31B-BB405F669FC1}">
-  <sheetPr>
+  <sheetPr codeName="Planilha4">
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="4" width="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3940,7 +3926,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>45776</v>
       </c>
@@ -3958,7 +3944,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>45782</v>
       </c>
@@ -3976,7 +3962,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>45789</v>
       </c>
@@ -3993,12 +3979,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>45796</v>
+        <v>45804</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" s="12">
         <v>8</v>
@@ -4017,26 +4003,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDEF7C1-BA1A-41C6-A1CE-FE25E68FEC66}">
-  <sheetPr>
+  <sheetPr codeName="Planilha5">
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="13" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="36" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4053,7 +4039,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>45660</v>
       </c>
@@ -4070,7 +4056,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>45663</v>
       </c>
@@ -4087,7 +4073,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>45670</v>
       </c>
@@ -4104,7 +4090,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>45677</v>
       </c>
@@ -4121,7 +4107,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>45691</v>
       </c>
@@ -4138,7 +4124,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>45700</v>
       </c>
@@ -4155,7 +4141,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>45707</v>
       </c>
@@ -4172,7 +4158,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>45712</v>
       </c>
@@ -4189,7 +4175,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>45722</v>
       </c>
@@ -4207,7 +4193,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>45726</v>
       </c>
@@ -4225,7 +4211,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>45735</v>
       </c>
@@ -4243,7 +4229,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>45742</v>
       </c>
@@ -4261,7 +4247,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>45747</v>
       </c>
@@ -4279,7 +4265,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>45756</v>
       </c>
@@ -4297,7 +4283,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>45763</v>
       </c>
@@ -4315,7 +4301,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>45769</v>
       </c>
@@ -4333,7 +4319,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>45776</v>
       </c>
@@ -4351,7 +4337,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>45782</v>
       </c>
@@ -4369,7 +4355,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>45789</v>
       </c>
@@ -4387,16 +4373,16 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>45796</v>
+        <v>45804</v>
       </c>
       <c r="B21" s="45" t="str">
         <f t="shared" si="0"/>
-        <v>2025.21</v>
+        <v>2025.22</v>
       </c>
       <c r="C21" s="12">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D21" s="35">
         <v>50</v>
@@ -4413,26 +4399,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472DDF60-7D6F-482B-A440-F0D06D7506E3}">
-  <sheetPr>
+  <sheetPr codeName="Planilha6">
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="37" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4449,7 +4435,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>45660</v>
       </c>
@@ -4466,7 +4452,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>45663</v>
       </c>
@@ -4483,7 +4469,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>45670</v>
       </c>
@@ -4500,7 +4486,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>45677</v>
       </c>
@@ -4517,7 +4503,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>45691</v>
       </c>
@@ -4534,7 +4520,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>45700</v>
       </c>
@@ -4551,7 +4537,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>45707</v>
       </c>
@@ -4568,7 +4554,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>45712</v>
       </c>
@@ -4585,7 +4571,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>45722</v>
       </c>
@@ -4603,7 +4589,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>45726</v>
       </c>
@@ -4621,7 +4607,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>45735</v>
       </c>
@@ -4639,7 +4625,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>45742</v>
       </c>
@@ -4657,7 +4643,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>45747</v>
       </c>
@@ -4675,7 +4661,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>45756</v>
       </c>
@@ -4693,7 +4679,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>45763</v>
       </c>
@@ -4711,7 +4697,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>45769</v>
       </c>
@@ -4729,7 +4715,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>45776</v>
       </c>
@@ -4747,7 +4733,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>45782</v>
       </c>
@@ -4765,7 +4751,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>45789</v>
       </c>
@@ -4783,13 +4769,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
-        <v>45796</v>
+        <v>45804</v>
       </c>
       <c r="B21" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>2025.21</v>
+        <v>2025.22</v>
       </c>
       <c r="C21" s="12">
         <v>39</v>
@@ -4808,29 +4794,29 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C356873-1C11-4CF9-A40A-472E5ABA10EA}">
-  <sheetPr>
+  <sheetPr codeName="Planilha7">
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>110</v>
@@ -4842,12 +4828,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>45658</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>125</v>
+      <c r="B2" s="45" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="20">
         <v>0.82889999999999997</v>
@@ -4859,12 +4845,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>45689</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>127</v>
+      <c r="B3" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="C3" s="20">
         <v>0.83160000000000001</v>
@@ -4876,12 +4862,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>45717</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>128</v>
+      <c r="B4" s="45" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="20">
         <v>0.83289999999999997</v>
@@ -4893,12 +4879,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>45748</v>
       </c>
-      <c r="B5" s="53" t="s">
-        <v>129</v>
+      <c r="B5" s="45" t="s">
+        <v>37</v>
       </c>
       <c r="C5" s="20">
         <v>0.87139999999999995</v>
@@ -4917,26 +4903,26 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C6A4FF-9A02-4A7E-A1AD-29E65AF16995}">
-  <sheetPr>
+  <sheetPr codeName="Planilha8">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="23.21875" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
@@ -4956,7 +4942,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>60</v>
       </c>
@@ -4976,7 +4962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>61</v>
       </c>
@@ -4996,7 +4982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>62</v>
       </c>
@@ -5016,7 +5002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>63</v>
       </c>
@@ -5036,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>64</v>
       </c>
@@ -5056,7 +5042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>65</v>
       </c>
@@ -5076,7 +5062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>66</v>
       </c>
@@ -5096,7 +5082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>67</v>
       </c>
@@ -5116,7 +5102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>68</v>
       </c>
@@ -5136,7 +5122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>69</v>
       </c>
@@ -5156,7 +5142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>70</v>
       </c>
@@ -5176,7 +5162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>71</v>
       </c>
@@ -5196,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>72</v>
       </c>
@@ -5216,7 +5202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>73</v>
       </c>
@@ -5236,7 +5222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>74</v>
       </c>
@@ -5256,7 +5242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>75</v>
       </c>
@@ -5276,7 +5262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>76</v>
       </c>
@@ -5296,7 +5282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>77</v>
       </c>
@@ -5316,7 +5302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>78</v>
       </c>
@@ -5336,7 +5322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>79</v>
       </c>
@@ -5356,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>80</v>
       </c>
@@ -5376,7 +5362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>81</v>
       </c>
@@ -5396,7 +5382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>82</v>
       </c>
@@ -5416,7 +5402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>83</v>
       </c>
@@ -5436,7 +5422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>84</v>
       </c>
@@ -5456,7 +5442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>85</v>
       </c>
@@ -5476,7 +5462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>86</v>
       </c>
@@ -5496,7 +5482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>87</v>
       </c>
@@ -5516,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>88</v>
       </c>
@@ -5536,7 +5522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>89</v>
       </c>
@@ -5556,7 +5542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>34</v>
       </c>
@@ -5576,7 +5562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>35</v>
       </c>
@@ -5596,7 +5582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>36</v>
       </c>
@@ -5616,7 +5602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>37</v>
       </c>
@@ -5636,7 +5622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>38</v>
       </c>
@@ -5656,7 +5642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>39</v>
       </c>
@@ -5676,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>40</v>
       </c>
@@ -5696,7 +5682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>27</v>
       </c>
@@ -5716,7 +5702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>28</v>
       </c>
@@ -5736,7 +5722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>18</v>
       </c>
@@ -5756,7 +5742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>19</v>
       </c>
@@ -5776,7 +5762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>20</v>
       </c>
@@ -5796,7 +5782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>21</v>
       </c>
@@ -5816,7 +5802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>22</v>
       </c>
@@ -5836,7 +5822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>23</v>
       </c>
@@ -5856,7 +5842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>24</v>
       </c>
@@ -5876,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>25</v>
       </c>
@@ -5896,7 +5882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>26</v>
       </c>
@@ -5917,7 +5903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>41</v>
       </c>
@@ -5938,22 +5924,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>109</v>
       </c>
       <c r="B51" s="12">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="C51" s="12">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D51" s="20">
         <f>C51/B51</f>
-        <v>0.11281337047353761</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="E51" s="20">
-        <v>1.0506</v>
+        <v>1.0771999999999999</v>
       </c>
       <c r="F51" s="28">
         <v>1</v>
@@ -5966,26 +5952,26 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB8B488-1F99-4BD2-ADE3-A0F970A1608D}">
-  <sheetPr>
+  <sheetPr codeName="Planilha9">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" customWidth="1"/>
-    <col min="7" max="8" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
@@ -6011,7 +5997,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>60</v>
       </c>
@@ -6027,7 +6013,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>61</v>
       </c>
@@ -6043,7 +6029,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>62</v>
       </c>
@@ -6059,7 +6045,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>63</v>
       </c>
@@ -6075,7 +6061,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>64</v>
       </c>
@@ -6091,7 +6077,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>65</v>
       </c>
@@ -6107,7 +6093,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>66</v>
       </c>
@@ -6123,7 +6109,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>67</v>
       </c>
@@ -6139,7 +6125,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>68</v>
       </c>
@@ -6155,7 +6141,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>69</v>
       </c>
@@ -6171,7 +6157,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>70</v>
       </c>
@@ -6187,7 +6173,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>71</v>
       </c>
@@ -6203,7 +6189,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>72</v>
       </c>
@@ -6219,7 +6205,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>73</v>
       </c>
@@ -6235,7 +6221,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -6251,7 +6237,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>75</v>
       </c>
@@ -6267,7 +6253,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>76</v>
       </c>
@@ -6283,7 +6269,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -6299,7 +6285,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>78</v>
       </c>
@@ -6315,7 +6301,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>79</v>
       </c>
@@ -6331,7 +6317,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>80</v>
       </c>
@@ -6347,7 +6333,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>81</v>
       </c>
@@ -6363,7 +6349,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>82</v>
       </c>
@@ -6379,7 +6365,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>83</v>
       </c>
@@ -6395,7 +6381,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>84</v>
       </c>
@@ -6411,7 +6397,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>85</v>
       </c>
@@ -6427,7 +6413,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>86</v>
       </c>
@@ -6443,7 +6429,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>87</v>
       </c>
@@ -6459,7 +6445,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>88</v>
       </c>
@@ -6475,7 +6461,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>89</v>
       </c>
@@ -6491,7 +6477,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>34</v>
       </c>
@@ -6507,7 +6493,7 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>35</v>
       </c>
@@ -6523,7 +6509,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>36</v>
       </c>
@@ -6539,7 +6525,7 @@
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
         <v>37</v>
       </c>
@@ -6555,7 +6541,7 @@
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>38</v>
       </c>
@@ -6571,7 +6557,7 @@
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
         <v>39</v>
       </c>
@@ -6587,7 +6573,7 @@
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
         <v>40</v>
       </c>
@@ -6603,7 +6589,7 @@
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
         <v>27</v>
       </c>
@@ -6619,7 +6605,7 @@
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>28</v>
       </c>
@@ -6635,7 +6621,7 @@
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
         <v>18</v>
       </c>
@@ -6651,7 +6637,7 @@
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>19</v>
       </c>
@@ -6667,7 +6653,7 @@
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
         <v>20</v>
       </c>
@@ -6683,7 +6669,7 @@
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>21</v>
       </c>
@@ -6699,7 +6685,7 @@
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>22</v>
       </c>
@@ -6715,7 +6701,7 @@
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
         <v>23</v>
       </c>
@@ -6731,7 +6717,7 @@
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
         <v>24</v>
       </c>
@@ -6747,7 +6733,7 @@
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="29" t="s">
         <v>25</v>
       </c>
@@ -6763,7 +6749,7 @@
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="29" t="s">
         <v>26</v>
       </c>
@@ -6779,7 +6765,7 @@
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>41</v>
       </c>
@@ -6795,12 +6781,12 @@
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>109</v>
       </c>
       <c r="B51" s="12">
-        <v>4.04</v>
+        <v>3.2</v>
       </c>
       <c r="C51" s="12">
         <v>10</v>
@@ -6814,257 +6800,4 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="46456448-3e6f-4693-b60d-2caaf7d50d74" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E6A46EF3934B6A4F80D5E3E07DABB9BE" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2786f35b2066781593a9c00935c9e7db">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="46456448-3e6f-4693-b60d-2caaf7d50d74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f18ab6aa30a2f4f9853c995b9cf1e46" ns3:_="">
-    <xsd:import namespace="46456448-3e6f-4693-b60d-2caaf7d50d74"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:_activity" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="46456448-3e6f-4693-b60d-2caaf7d50d74" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceDateTaken" ma:index="8" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSystemTags" ma:index="13" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_activity" ma:index="17" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{178C4AF9-5176-4DDE-8809-0E796128CF7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="46456448-3e6f-4693-b60d-2caaf7d50d74"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16F70A4C-2D0F-46C0-8227-B99013FADA1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="46456448-3e6f-4693-b60d-2caaf7d50d74"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B11B2690-400D-40BB-99F9-4A5A8FC4FFCD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/historico_recap.xlsx
+++ b/historico_recap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/pedro_klauber_prestserv_petrobras_com_br1/Documents/C3/Banco de dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1029" documentId="8_{CC12F0BA-7BC6-493E-83E4-E071F8399D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8153AD52-7728-4F25-ACB3-177180ED0387}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2D22092-61F7-40F8-A3CB-EE4C820708D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="10" xr2:uid="{764A3B1C-4385-41E0-85B9-B2E5043E601B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{764A3B1C-4385-41E0-85B9-B2E5043E601B}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTA DE INDICADORES" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="127">
   <si>
     <t>DATA</t>
   </si>
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>2025.22</t>
+  </si>
+  <si>
+    <t>2025.23</t>
   </si>
 </sst>
 </file>
@@ -1070,16 +1073,16 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="13"/>
-    <col min="3" max="3" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="13"/>
+    <col min="3" max="3" width="9.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1096,7 +1099,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>45789</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>45789</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1139,7 +1142,7 @@
         <v>45789</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1154,7 +1157,7 @@
         <v>45789</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1169,7 +1172,7 @@
         <v>45789</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1180,7 +1183,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="50"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1195,7 +1198,7 @@
         <v>45789</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1210,7 +1213,7 @@
         <v>45789</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>45789</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>45789</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>14</v>
       </c>
@@ -1249,7 +1252,7 @@
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>48</v>
       </c>
@@ -1262,7 +1265,7 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>99</v>
       </c>
@@ -1271,7 +1274,7 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
         <v>100</v>
       </c>
@@ -1280,7 +1283,7 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>101</v>
       </c>
@@ -1299,21 +1302,21 @@
   <sheetPr codeName="Planilha10">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
@@ -1324,7 +1327,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>60</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>61</v>
       </c>
@@ -1346,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>62</v>
       </c>
@@ -1357,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>63</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>64</v>
       </c>
@@ -1379,7 +1382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>65</v>
       </c>
@@ -1390,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>66</v>
       </c>
@@ -1401,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>67</v>
       </c>
@@ -1412,7 +1415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>68</v>
       </c>
@@ -1423,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>69</v>
       </c>
@@ -1434,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>70</v>
       </c>
@@ -1445,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>71</v>
       </c>
@@ -1456,7 +1459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>72</v>
       </c>
@@ -1467,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>73</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>75</v>
       </c>
@@ -1500,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>76</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>78</v>
       </c>
@@ -1533,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>79</v>
       </c>
@@ -1544,7 +1547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>80</v>
       </c>
@@ -1555,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>81</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>82</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>83</v>
       </c>
@@ -1588,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>84</v>
       </c>
@@ -1599,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>84</v>
       </c>
@@ -1610,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>84</v>
       </c>
@@ -1621,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>84</v>
       </c>
@@ -1632,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>84</v>
       </c>
@@ -1643,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>84</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>84</v>
       </c>
@@ -1665,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>85</v>
       </c>
@@ -1676,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>86</v>
       </c>
@@ -1687,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
         <v>86</v>
       </c>
@@ -1698,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
         <v>87</v>
       </c>
@@ -1709,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
         <v>88</v>
       </c>
@@ -1720,7 +1723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
         <v>89</v>
       </c>
@@ -1731,7 +1734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
         <v>34</v>
       </c>
@@ -1742,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
         <v>35</v>
       </c>
@@ -1753,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
         <v>36</v>
       </c>
@@ -1764,7 +1767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
         <v>37</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="29" t="s">
         <v>38</v>
       </c>
@@ -1786,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
         <v>39</v>
       </c>
@@ -1797,7 +1800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
         <v>40</v>
       </c>
@@ -1808,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
         <v>27</v>
       </c>
@@ -1819,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
         <v>28</v>
       </c>
@@ -1830,7 +1833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
         <v>18</v>
       </c>
@@ -1841,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
         <v>19</v>
       </c>
@@ -1852,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
         <v>20</v>
       </c>
@@ -1863,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="29" t="s">
         <v>21</v>
       </c>
@@ -1874,7 +1877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
         <v>22</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="29" t="s">
         <v>23</v>
       </c>
@@ -1896,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="29" t="s">
         <v>24</v>
       </c>
@@ -1907,7 +1910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
         <v>25</v>
       </c>
@@ -1918,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
         <v>26</v>
       </c>
@@ -1929,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
         <v>41</v>
       </c>
@@ -1940,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="29" t="s">
         <v>109</v>
       </c>
@@ -1948,6 +1951,17 @@
         <v>1</v>
       </c>
       <c r="C58" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="17">
+        <v>1</v>
+      </c>
+      <c r="C59" s="17">
         <v>1</v>
       </c>
     </row>
@@ -1961,30 +1975,30 @@
   <sheetPr codeName="Planilha11">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -2022,7 +2036,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>45722</v>
       </c>
@@ -2062,7 +2076,7 @@
         <v>16533.900000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>45727</v>
       </c>
@@ -2094,15 +2108,15 @@
         <v>23665.900000000005</v>
       </c>
       <c r="K3" s="52">
-        <f t="shared" ref="K3:K9" si="0">H3/J3</f>
+        <f t="shared" ref="K3:K10" si="0">H3/J3</f>
         <v>0.31164248982713516</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L9" si="1">J3-H3</f>
+        <f t="shared" ref="L3:L10" si="1">J3-H3</f>
         <v>16290.600000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>45740</v>
       </c>
@@ -2142,7 +2156,7 @@
         <v>16354.340000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>45748</v>
       </c>
@@ -2182,7 +2196,7 @@
         <v>15975.370000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>45770</v>
       </c>
@@ -2222,7 +2236,7 @@
         <v>15424.150000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>45776</v>
       </c>
@@ -2262,7 +2276,7 @@
         <v>17409.430000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>45789</v>
       </c>
@@ -2302,7 +2316,7 @@
         <v>15184.620000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>45804</v>
       </c>
@@ -2340,6 +2354,46 @@
       <c r="L9">
         <f t="shared" si="1"/>
         <v>14837.310000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>45811</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10">
+        <v>7685.25</v>
+      </c>
+      <c r="D10">
+        <v>633.63000000000011</v>
+      </c>
+      <c r="E10">
+        <v>1214</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>9343</v>
+      </c>
+      <c r="H10">
+        <v>8318.880000000001</v>
+      </c>
+      <c r="I10">
+        <v>10637</v>
+      </c>
+      <c r="J10">
+        <v>23665.900000000005</v>
+      </c>
+      <c r="K10" s="52">
+        <f t="shared" si="0"/>
+        <v>0.35151335888345675</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>15347.020000000004</v>
       </c>
     </row>
   </sheetData>
@@ -2355,10 +2409,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2378,22 +2432,22 @@
       <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>17</v>
       </c>
@@ -2434,7 +2488,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>34</v>
       </c>
@@ -2482,7 +2536,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>35</v>
       </c>
@@ -2530,7 +2584,7 @@
         <v>1.1538461538461537</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>36</v>
       </c>
@@ -2578,7 +2632,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>37</v>
       </c>
@@ -2626,7 +2680,7 @@
         <v>1.3888888888888888</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>38</v>
       </c>
@@ -2674,7 +2728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>39</v>
       </c>
@@ -2722,7 +2776,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>40</v>
       </c>
@@ -2770,7 +2824,7 @@
         <v>1.1363636363636362</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>27</v>
       </c>
@@ -2818,7 +2872,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>28</v>
       </c>
@@ -2866,7 +2920,7 @@
         <v>0.57377049180327877</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>18</v>
       </c>
@@ -2914,7 +2968,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>19</v>
       </c>
@@ -2962,7 +3016,7 @@
         <v>0.61224489795918358</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
         <v>20</v>
       </c>
@@ -3010,7 +3064,7 @@
         <v>0.57692307692307687</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
         <v>21</v>
       </c>
@@ -3058,7 +3112,7 @@
         <v>1.09375</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>22</v>
       </c>
@@ -3106,7 +3160,7 @@
         <v>1.2727272727272727</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>23</v>
       </c>
@@ -3154,7 +3208,7 @@
         <v>1.7924528301886793</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>24</v>
       </c>
@@ -3202,7 +3256,7 @@
         <v>1.9512195121951221</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
         <v>25</v>
       </c>
@@ -3250,7 +3304,7 @@
         <v>1.1904761904761905</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>26</v>
       </c>
@@ -3298,7 +3352,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
         <v>41</v>
       </c>
@@ -3328,7 +3382,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3341,24 +3395,24 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="13" customWidth="1"/>
-    <col min="7" max="8" width="24.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="13" customWidth="1"/>
+    <col min="7" max="8" width="24.44140625" style="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3387,7 +3441,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
         <v>28</v>
@@ -3408,7 +3462,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
         <v>18</v>
@@ -3429,7 +3483,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
         <v>19</v>
@@ -3450,7 +3504,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
         <v>20</v>
@@ -3471,7 +3525,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
         <v>21</v>
@@ -3492,7 +3546,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
         <v>22</v>
@@ -3513,7 +3567,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="11" t="s">
         <v>23</v>
@@ -3534,7 +3588,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="11" t="s">
         <v>24</v>
@@ -3555,7 +3609,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>45769</v>
       </c>
@@ -3585,7 +3639,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>45776</v>
       </c>
@@ -3615,7 +3669,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>45782</v>
       </c>
@@ -3645,7 +3699,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>45789</v>
       </c>
@@ -3675,7 +3729,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>45801</v>
       </c>
@@ -3704,15 +3758,44 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>45811</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="12">
+        <v>295</v>
+      </c>
+      <c r="D15" s="12">
+        <v>17</v>
+      </c>
+      <c r="E15" s="12">
+        <v>13</v>
+      </c>
+      <c r="F15" s="43">
+        <v>1</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="H15" s="41">
+        <v>1</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -3731,24 +3814,24 @@
   <sheetPr codeName="Planilha3">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3774,7 +3857,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>45776</v>
       </c>
@@ -3802,7 +3885,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>45782</v>
       </c>
@@ -3830,7 +3913,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>45789</v>
       </c>
@@ -3857,7 +3940,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>45804</v>
       </c>
@@ -3881,6 +3964,33 @@
         <v>1</v>
       </c>
       <c r="H5" s="45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>45811</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="12">
+        <v>92</v>
+      </c>
+      <c r="D6" s="12">
+        <v>655</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="41">
+        <f>1-(C6/D6)</f>
+        <v>0.85954198473282439</v>
+      </c>
+      <c r="G6" s="42">
+        <v>1</v>
+      </c>
+      <c r="H6" s="45" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3894,22 +4004,22 @@
   <sheetPr codeName="Planilha4">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D24:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="4" width="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -3926,7 +4036,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>45776</v>
       </c>
@@ -3944,7 +4054,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>45782</v>
       </c>
@@ -3962,7 +4072,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>45789</v>
       </c>
@@ -3979,7 +4089,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>45804</v>
       </c>
@@ -3993,6 +4103,23 @@
         <v>10</v>
       </c>
       <c r="E5" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>45811</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="12">
+        <v>9</v>
+      </c>
+      <c r="D6" s="40">
+        <v>10</v>
+      </c>
+      <c r="E6" s="45" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4006,23 +4133,23 @@
   <sheetPr codeName="Planilha5">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="13" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="36" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4039,7 +4166,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>45660</v>
       </c>
@@ -4056,7 +4183,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>45663</v>
       </c>
@@ -4073,7 +4200,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>45670</v>
       </c>
@@ -4090,7 +4217,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>45677</v>
       </c>
@@ -4107,7 +4234,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>45691</v>
       </c>
@@ -4124,7 +4251,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>45700</v>
       </c>
@@ -4141,7 +4268,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>45707</v>
       </c>
@@ -4158,7 +4285,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>45712</v>
       </c>
@@ -4175,12 +4302,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>45722</v>
       </c>
       <c r="B10" s="45" t="str">
-        <f t="shared" ref="B10:B21" si="0">CONCATENATE(YEAR(A10),".",_xlfn.ISOWEEKNUM(A10))</f>
+        <f t="shared" ref="B10:B22" si="0">CONCATENATE(YEAR(A10),".",_xlfn.ISOWEEKNUM(A10))</f>
         <v>2025.10</v>
       </c>
       <c r="C10" s="12">
@@ -4193,7 +4320,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>45726</v>
       </c>
@@ -4211,7 +4338,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>45735</v>
       </c>
@@ -4229,7 +4356,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>45742</v>
       </c>
@@ -4247,7 +4374,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>45747</v>
       </c>
@@ -4265,7 +4392,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>45756</v>
       </c>
@@ -4283,7 +4410,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>45763</v>
       </c>
@@ -4301,7 +4428,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>45769</v>
       </c>
@@ -4319,7 +4446,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>45776</v>
       </c>
@@ -4337,7 +4464,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>45782</v>
       </c>
@@ -4355,7 +4482,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>45789</v>
       </c>
@@ -4373,7 +4500,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>45804</v>
       </c>
@@ -4388,6 +4515,24 @@
         <v>50</v>
       </c>
       <c r="E21" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>45811</v>
+      </c>
+      <c r="B22" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>2025.23</v>
+      </c>
+      <c r="C22" s="12">
+        <v>95</v>
+      </c>
+      <c r="D22" s="35">
+        <v>50</v>
+      </c>
+      <c r="E22" s="45" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4402,23 +4547,23 @@
   <sheetPr codeName="Planilha6">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="37" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4435,7 +4580,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>45660</v>
       </c>
@@ -4452,7 +4597,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>45663</v>
       </c>
@@ -4469,7 +4614,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>45670</v>
       </c>
@@ -4486,7 +4631,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>45677</v>
       </c>
@@ -4503,7 +4648,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>45691</v>
       </c>
@@ -4520,7 +4665,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>45700</v>
       </c>
@@ -4537,7 +4682,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>45707</v>
       </c>
@@ -4554,7 +4699,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>45712</v>
       </c>
@@ -4571,7 +4716,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>45722</v>
       </c>
@@ -4589,7 +4734,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>45726</v>
       </c>
@@ -4607,7 +4752,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>45735</v>
       </c>
@@ -4625,7 +4770,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>45742</v>
       </c>
@@ -4643,7 +4788,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>45747</v>
       </c>
@@ -4661,7 +4806,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>45756</v>
       </c>
@@ -4679,7 +4824,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>45763</v>
       </c>
@@ -4697,7 +4842,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>45769</v>
       </c>
@@ -4715,7 +4860,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>45776</v>
       </c>
@@ -4733,12 +4878,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>45782</v>
       </c>
       <c r="B19" s="11" t="str">
-        <f t="shared" ref="B19:B21" si="1">CONCATENATE(YEAR(A19),".",_xlfn.ISOWEEKNUM(A19))</f>
+        <f t="shared" ref="B19:B22" si="1">CONCATENATE(YEAR(A19),".",_xlfn.ISOWEEKNUM(A19))</f>
         <v>2025.19</v>
       </c>
       <c r="C19" s="12">
@@ -4751,7 +4896,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>45789</v>
       </c>
@@ -4769,7 +4914,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>45804</v>
       </c>
@@ -4784,6 +4929,24 @@
         <v>20</v>
       </c>
       <c r="E21" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>45811</v>
+      </c>
+      <c r="B22" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>2025.23</v>
+      </c>
+      <c r="C22" s="12">
+        <v>45</v>
+      </c>
+      <c r="D22" s="35">
+        <v>20</v>
+      </c>
+      <c r="E22" s="45" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4800,18 +4963,18 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4828,7 +4991,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>45658</v>
       </c>
@@ -4845,7 +5008,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>45689</v>
       </c>
@@ -4862,7 +5025,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>45717</v>
       </c>
@@ -4879,7 +5042,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>45748</v>
       </c>
@@ -4906,23 +5069,23 @@
   <sheetPr codeName="Planilha8">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
@@ -4942,7 +5105,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>60</v>
       </c>
@@ -4962,7 +5125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>61</v>
       </c>
@@ -4982,7 +5145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>62</v>
       </c>
@@ -5002,7 +5165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>63</v>
       </c>
@@ -5022,7 +5185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>64</v>
       </c>
@@ -5042,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>65</v>
       </c>
@@ -5062,7 +5225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>66</v>
       </c>
@@ -5082,7 +5245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>67</v>
       </c>
@@ -5102,7 +5265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>68</v>
       </c>
@@ -5122,7 +5285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>69</v>
       </c>
@@ -5142,7 +5305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>70</v>
       </c>
@@ -5162,7 +5325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>71</v>
       </c>
@@ -5182,7 +5345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>72</v>
       </c>
@@ -5202,7 +5365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>73</v>
       </c>
@@ -5222,7 +5385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>74</v>
       </c>
@@ -5242,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>75</v>
       </c>
@@ -5262,7 +5425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>76</v>
       </c>
@@ -5282,7 +5445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>77</v>
       </c>
@@ -5302,7 +5465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>78</v>
       </c>
@@ -5322,7 +5485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>79</v>
       </c>
@@ -5342,7 +5505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>80</v>
       </c>
@@ -5362,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>81</v>
       </c>
@@ -5382,7 +5545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>82</v>
       </c>
@@ -5402,7 +5565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>83</v>
       </c>
@@ -5422,7 +5585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>84</v>
       </c>
@@ -5442,7 +5605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>85</v>
       </c>
@@ -5462,7 +5625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>86</v>
       </c>
@@ -5482,7 +5645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>87</v>
       </c>
@@ -5502,7 +5665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>88</v>
       </c>
@@ -5522,7 +5685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>89</v>
       </c>
@@ -5542,7 +5705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>34</v>
       </c>
@@ -5562,7 +5725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>35</v>
       </c>
@@ -5582,7 +5745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>36</v>
       </c>
@@ -5602,7 +5765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>37</v>
       </c>
@@ -5622,7 +5785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>38</v>
       </c>
@@ -5642,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>39</v>
       </c>
@@ -5662,7 +5825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>40</v>
       </c>
@@ -5682,7 +5845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>27</v>
       </c>
@@ -5702,7 +5865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>28</v>
       </c>
@@ -5722,7 +5885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>18</v>
       </c>
@@ -5742,7 +5905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>19</v>
       </c>
@@ -5762,7 +5925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>20</v>
       </c>
@@ -5782,7 +5945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>21</v>
       </c>
@@ -5802,7 +5965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>22</v>
       </c>
@@ -5822,7 +5985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>23</v>
       </c>
@@ -5842,7 +6005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>24</v>
       </c>
@@ -5862,7 +6025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>25</v>
       </c>
@@ -5882,7 +6045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>26</v>
       </c>
@@ -5903,7 +6066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>41</v>
       </c>
@@ -5924,7 +6087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>109</v>
       </c>
@@ -5942,6 +6105,27 @@
         <v>1.0771999999999999</v>
       </c>
       <c r="F51" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="12">
+        <v>762</v>
+      </c>
+      <c r="C52" s="12">
+        <v>83</v>
+      </c>
+      <c r="D52" s="20">
+        <f>C52/B52</f>
+        <v>0.1089238845144357</v>
+      </c>
+      <c r="E52" s="20">
+        <v>1.093</v>
+      </c>
+      <c r="F52" s="28">
         <v>1</v>
       </c>
     </row>
@@ -5955,23 +6139,23 @@
   <sheetPr codeName="Planilha9">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
@@ -5997,7 +6181,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>60</v>
       </c>
@@ -6013,7 +6197,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>61</v>
       </c>
@@ -6029,7 +6213,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>62</v>
       </c>
@@ -6045,7 +6229,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>63</v>
       </c>
@@ -6061,7 +6245,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>64</v>
       </c>
@@ -6077,7 +6261,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>65</v>
       </c>
@@ -6093,7 +6277,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>66</v>
       </c>
@@ -6109,7 +6293,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>67</v>
       </c>
@@ -6125,7 +6309,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>68</v>
       </c>
@@ -6141,7 +6325,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>69</v>
       </c>
@@ -6157,7 +6341,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>70</v>
       </c>
@@ -6173,7 +6357,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>71</v>
       </c>
@@ -6189,7 +6373,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>72</v>
       </c>
@@ -6205,7 +6389,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>73</v>
       </c>
@@ -6221,7 +6405,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -6237,7 +6421,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>75</v>
       </c>
@@ -6253,7 +6437,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>76</v>
       </c>
@@ -6269,7 +6453,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -6285,7 +6469,7 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>78</v>
       </c>
@@ -6301,7 +6485,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>79</v>
       </c>
@@ -6317,7 +6501,7 @@
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>80</v>
       </c>
@@ -6333,7 +6517,7 @@
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>81</v>
       </c>
@@ -6349,7 +6533,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>82</v>
       </c>
@@ -6365,7 +6549,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>83</v>
       </c>
@@ -6381,7 +6565,7 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>84</v>
       </c>
@@ -6397,7 +6581,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>85</v>
       </c>
@@ -6413,7 +6597,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>86</v>
       </c>
@@ -6429,7 +6613,7 @@
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>87</v>
       </c>
@@ -6445,7 +6629,7 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>88</v>
       </c>
@@ -6461,7 +6645,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>89</v>
       </c>
@@ -6477,7 +6661,7 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>34</v>
       </c>
@@ -6493,7 +6677,7 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>35</v>
       </c>
@@ -6509,7 +6693,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>36</v>
       </c>
@@ -6525,7 +6709,7 @@
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
         <v>37</v>
       </c>
@@ -6541,7 +6725,7 @@
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
         <v>38</v>
       </c>
@@ -6557,7 +6741,7 @@
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
         <v>39</v>
       </c>
@@ -6573,7 +6757,7 @@
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
         <v>40</v>
       </c>
@@ -6589,7 +6773,7 @@
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
         <v>27</v>
       </c>
@@ -6605,7 +6789,7 @@
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
         <v>28</v>
       </c>
@@ -6621,7 +6805,7 @@
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
         <v>18</v>
       </c>
@@ -6637,7 +6821,7 @@
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
         <v>19</v>
       </c>
@@ -6653,7 +6837,7 @@
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="29" t="s">
         <v>20</v>
       </c>
@@ -6669,7 +6853,7 @@
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
         <v>21</v>
       </c>
@@ -6685,7 +6869,7 @@
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
         <v>22</v>
       </c>
@@ -6701,7 +6885,7 @@
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
         <v>23</v>
       </c>
@@ -6717,7 +6901,7 @@
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
         <v>24</v>
       </c>
@@ -6733,7 +6917,7 @@
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
         <v>25</v>
       </c>
@@ -6749,7 +6933,7 @@
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
         <v>26</v>
       </c>
@@ -6765,7 +6949,7 @@
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
         <v>41</v>
       </c>
@@ -6781,7 +6965,7 @@
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="29" t="s">
         <v>109</v>
       </c>
@@ -6797,7 +6981,29 @@
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
     </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="12">
+        <v>3.54</v>
+      </c>
+      <c r="C52" s="12">
+        <v>10</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{140b9f7d-8e3a-482f-9702-4b7ffc40985a}" enabled="1" method="Privileged" siteId="{5b6f6241-9a57-4be4-8e50-1dfa72e79a57}" removed="0"/>
+</clbl:labelList>
 </file>
--- a/historico_recap.xlsx
+++ b/historico_recap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/pedro_klauber_prestserv_petrobras_com_br1/Documents/C3/Banco de dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2D22092-61F7-40F8-A3CB-EE4C820708D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{A2D22092-61F7-40F8-A3CB-EE4C820708D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{588A7CA7-4BB7-4712-8775-336EBDF74EF4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{764A3B1C-4385-41E0-85B9-B2E5043E601B}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{764A3B1C-4385-41E0-85B9-B2E5043E601B}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTA DE INDICADORES" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="128">
   <si>
     <t>DATA</t>
   </si>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t>2025.23</t>
+  </si>
+  <si>
+    <t>2025.24</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1073,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1975,11 +1978,11 @@
   <sheetPr codeName="Planilha11">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2108,11 +2111,11 @@
         <v>23665.900000000005</v>
       </c>
       <c r="K3" s="52">
-        <f t="shared" ref="K3:K10" si="0">H3/J3</f>
+        <f t="shared" ref="K3:K11" si="0">H3/J3</f>
         <v>0.31164248982713516</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L10" si="1">J3-H3</f>
+        <f t="shared" ref="L3:L11" si="1">J3-H3</f>
         <v>16290.600000000006</v>
       </c>
     </row>
@@ -2394,6 +2397,46 @@
       <c r="L10">
         <f t="shared" si="1"/>
         <v>15347.020000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>45818</v>
+      </c>
+      <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11">
+        <v>7846</v>
+      </c>
+      <c r="D11">
+        <v>655.15</v>
+      </c>
+      <c r="E11">
+        <v>1237</v>
+      </c>
+      <c r="F11">
+        <v>79</v>
+      </c>
+      <c r="G11">
+        <v>9547</v>
+      </c>
+      <c r="H11">
+        <v>8501.15</v>
+      </c>
+      <c r="I11">
+        <v>10863</v>
+      </c>
+      <c r="J11">
+        <v>23665.900000000005</v>
+      </c>
+      <c r="K11" s="52">
+        <f t="shared" si="0"/>
+        <v>0.35921515767412177</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>15164.750000000005</v>
       </c>
     </row>
   </sheetData>
@@ -3397,7 +3440,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3787,6 +3830,35 @@
         <v>107</v>
       </c>
     </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>45818</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="12">
+        <v>287</v>
+      </c>
+      <c r="D16" s="12">
+        <v>17</v>
+      </c>
+      <c r="E16" s="12">
+        <v>13</v>
+      </c>
+      <c r="F16" s="43">
+        <v>1</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0.96509999999999996</v>
+      </c>
+      <c r="H16" s="41">
+        <v>1</v>
+      </c>
+      <c r="I16" s="45" t="s">
+        <v>107</v>
+      </c>
+    </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
     </row>
@@ -3814,11 +3886,11 @@
   <sheetPr codeName="Planilha3">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3994,6 +4066,33 @@
         <v>107</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>45818</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="12">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12">
+        <v>651</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="41">
+        <f>1-(C7/D7)</f>
+        <v>0.98463901689708144</v>
+      </c>
+      <c r="G7" s="42">
+        <v>1</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4004,11 +4103,11 @@
   <sheetPr codeName="Planilha4">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D24:D25"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4123,6 +4222,23 @@
         <v>106</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>45818</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="12">
+        <v>8</v>
+      </c>
+      <c r="D7" s="40">
+        <v>10</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4133,11 +4249,11 @@
   <sheetPr codeName="Planilha5">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4307,7 +4423,7 @@
         <v>45722</v>
       </c>
       <c r="B10" s="45" t="str">
-        <f t="shared" ref="B10:B22" si="0">CONCATENATE(YEAR(A10),".",_xlfn.ISOWEEKNUM(A10))</f>
+        <f t="shared" ref="B10:B23" si="0">CONCATENATE(YEAR(A10),".",_xlfn.ISOWEEKNUM(A10))</f>
         <v>2025.10</v>
       </c>
       <c r="C10" s="12">
@@ -4533,6 +4649,24 @@
         <v>50</v>
       </c>
       <c r="E22" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>45818</v>
+      </c>
+      <c r="B23" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>2025.24</v>
+      </c>
+      <c r="C23" s="12">
+        <v>93</v>
+      </c>
+      <c r="D23" s="35">
+        <v>50</v>
+      </c>
+      <c r="E23" s="45" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4547,11 +4681,11 @@
   <sheetPr codeName="Planilha6">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4883,7 +5017,7 @@
         <v>45782</v>
       </c>
       <c r="B19" s="11" t="str">
-        <f t="shared" ref="B19:B22" si="1">CONCATENATE(YEAR(A19),".",_xlfn.ISOWEEKNUM(A19))</f>
+        <f t="shared" ref="B19:B23" si="1">CONCATENATE(YEAR(A19),".",_xlfn.ISOWEEKNUM(A19))</f>
         <v>2025.19</v>
       </c>
       <c r="C19" s="12">
@@ -4947,6 +5081,24 @@
         <v>20</v>
       </c>
       <c r="E22" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>45818</v>
+      </c>
+      <c r="B23" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>2025.24</v>
+      </c>
+      <c r="C23" s="12">
+        <v>45</v>
+      </c>
+      <c r="D23" s="35">
+        <v>20</v>
+      </c>
+      <c r="E23" s="45" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5069,11 +5221,11 @@
   <sheetPr codeName="Planilha8">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6092,17 +6244,17 @@
         <v>109</v>
       </c>
       <c r="B51" s="12">
-        <v>737</v>
+        <v>718</v>
       </c>
       <c r="C51" s="12">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D51" s="20">
         <f>C51/B51</f>
-        <v>9.0909090909090912E-2</v>
+        <v>0.11281337047353761</v>
       </c>
       <c r="E51" s="20">
-        <v>1.0771999999999999</v>
+        <v>1.0506</v>
       </c>
       <c r="F51" s="28">
         <v>1</v>
@@ -6113,19 +6265,61 @@
         <v>124</v>
       </c>
       <c r="B52" s="12">
-        <v>762</v>
+        <v>737</v>
       </c>
       <c r="C52" s="12">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D52" s="20">
         <f>C52/B52</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="E52" s="20">
+        <v>1.0771999999999999</v>
+      </c>
+      <c r="F52" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="12">
+        <v>762</v>
+      </c>
+      <c r="C53" s="12">
+        <v>83</v>
+      </c>
+      <c r="D53" s="20">
+        <f>C53/B53</f>
         <v>0.1089238845144357</v>
       </c>
-      <c r="E52" s="20">
-        <v>1.093</v>
-      </c>
-      <c r="F52" s="28">
+      <c r="E53" s="20">
+        <v>1.0926</v>
+      </c>
+      <c r="F53" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="12">
+        <v>764</v>
+      </c>
+      <c r="C54" s="12">
+        <v>79</v>
+      </c>
+      <c r="D54" s="20">
+        <f>C54/B54</f>
+        <v>0.10340314136125654</v>
+      </c>
+      <c r="E54" s="20">
+        <v>1.06</v>
+      </c>
+      <c r="F54" s="28">
         <v>1</v>
       </c>
     </row>
@@ -6139,11 +6333,11 @@
   <sheetPr codeName="Planilha9">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6997,6 +7191,22 @@
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
     </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="12">
+        <v>3.4</v>
+      </c>
+      <c r="C53" s="12">
+        <v>10</v>
+      </c>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/historico_recap.xlsx
+++ b/historico_recap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/pedro_klauber_prestserv_petrobras_com_br1/Documents/C3/Banco de dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{A2D22092-61F7-40F8-A3CB-EE4C820708D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{588A7CA7-4BB7-4712-8775-336EBDF74EF4}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="8_{A2D22092-61F7-40F8-A3CB-EE4C820708D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8E9382C-3BFD-4DA3-8259-7BD58F2C0A12}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{764A3B1C-4385-41E0-85B9-B2E5043E601B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="11" xr2:uid="{764A3B1C-4385-41E0-85B9-B2E5043E601B}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTA DE INDICADORES" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="129">
   <si>
     <t>DATA</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>2025.24</t>
+  </si>
+  <si>
+    <t>2025.25</t>
   </si>
 </sst>
 </file>
@@ -535,7 +538,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -601,13 +604,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -731,6 +745,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1073,7 +1097,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1305,11 +1329,11 @@
   <sheetPr codeName="Planilha10">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1968,6 +1992,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="17">
+        <v>1</v>
+      </c>
+      <c r="C60" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="17">
+        <v>1</v>
+      </c>
+      <c r="C61" s="17">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1978,11 +2024,11 @@
   <sheetPr codeName="Planilha11">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2111,11 +2157,11 @@
         <v>23665.900000000005</v>
       </c>
       <c r="K3" s="52">
-        <f t="shared" ref="K3:K11" si="0">H3/J3</f>
+        <f t="shared" ref="K3:K12" si="0">H3/J3</f>
         <v>0.31164248982713516</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L11" si="1">J3-H3</f>
+        <f t="shared" ref="L3:L12" si="1">J3-H3</f>
         <v>16290.600000000006</v>
       </c>
     </row>
@@ -2437,6 +2483,46 @@
       <c r="L11">
         <f t="shared" si="1"/>
         <v>15164.750000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>45824</v>
+      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12">
+        <v>7872</v>
+      </c>
+      <c r="D12">
+        <v>655.15</v>
+      </c>
+      <c r="E12">
+        <v>1237</v>
+      </c>
+      <c r="F12">
+        <v>79</v>
+      </c>
+      <c r="G12">
+        <v>9596</v>
+      </c>
+      <c r="H12">
+        <v>8527.15</v>
+      </c>
+      <c r="I12">
+        <v>10912</v>
+      </c>
+      <c r="J12">
+        <v>23665.900000000005</v>
+      </c>
+      <c r="K12" s="52">
+        <f t="shared" si="0"/>
+        <v>0.36031378481274734</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>15138.750000000005</v>
       </c>
     </row>
   </sheetData>
@@ -2451,7 +2537,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2472,7 +2558,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3438,9 +3524,9 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3859,15 +3945,44 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>45824</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="12">
+        <v>292</v>
+      </c>
+      <c r="D17" s="12">
+        <v>17</v>
+      </c>
+      <c r="E17" s="12">
+        <v>13</v>
+      </c>
+      <c r="F17" s="43">
+        <v>1</v>
+      </c>
+      <c r="G17" s="20">
+        <v>0.96509999999999996</v>
+      </c>
+      <c r="H17" s="41">
+        <v>1</v>
+      </c>
+      <c r="I17" s="45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -3886,11 +4001,11 @@
   <sheetPr codeName="Planilha3">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3947,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="41">
-        <f>1-(C2/D2)</f>
+        <f t="shared" ref="F2:F8" si="1">1-(C2/D2)</f>
         <v>0.99527559055118109</v>
       </c>
       <c r="G2" s="42">
@@ -3975,7 +4090,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="41">
-        <f>1-(C3/D3)</f>
+        <f t="shared" si="1"/>
         <v>0.89763779527559051</v>
       </c>
       <c r="G3" s="42">
@@ -4002,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="41">
-        <f>1-(C4/D4)</f>
+        <f t="shared" si="1"/>
         <v>0.9255474452554745</v>
       </c>
       <c r="G4" s="42">
@@ -4029,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="41">
-        <f>1-(C5/D5)</f>
+        <f t="shared" si="1"/>
         <v>0.99392097264437695</v>
       </c>
       <c r="G5" s="42">
@@ -4056,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="41">
-        <f>1-(C6/D6)</f>
+        <f t="shared" si="1"/>
         <v>0.85954198473282439</v>
       </c>
       <c r="G6" s="42">
@@ -4083,13 +4198,40 @@
         <v>1</v>
       </c>
       <c r="F7" s="41">
-        <f>1-(C7/D7)</f>
+        <f t="shared" si="1"/>
         <v>0.98463901689708144</v>
       </c>
       <c r="G7" s="42">
         <v>1</v>
       </c>
       <c r="H7" s="45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>45824</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="54">
+        <v>10</v>
+      </c>
+      <c r="D8" s="54">
+        <v>654</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="55">
+        <f t="shared" si="1"/>
+        <v>0.98470948012232418</v>
+      </c>
+      <c r="G8" s="42">
+        <v>1</v>
+      </c>
+      <c r="H8" s="45" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4103,11 +4245,11 @@
   <sheetPr codeName="Planilha4">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4239,6 +4381,23 @@
         <v>106</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>45824</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="54">
+        <v>8</v>
+      </c>
+      <c r="D8" s="56">
+        <v>10</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4249,11 +4408,11 @@
   <sheetPr codeName="Planilha5">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4423,7 +4582,7 @@
         <v>45722</v>
       </c>
       <c r="B10" s="45" t="str">
-        <f t="shared" ref="B10:B23" si="0">CONCATENATE(YEAR(A10),".",_xlfn.ISOWEEKNUM(A10))</f>
+        <f t="shared" ref="B10:B24" si="0">CONCATENATE(YEAR(A10),".",_xlfn.ISOWEEKNUM(A10))</f>
         <v>2025.10</v>
       </c>
       <c r="C10" s="12">
@@ -4667,6 +4826,24 @@
         <v>50</v>
       </c>
       <c r="E23" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>45824</v>
+      </c>
+      <c r="B24" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>2025.25</v>
+      </c>
+      <c r="C24" s="12">
+        <v>95</v>
+      </c>
+      <c r="D24" s="35">
+        <v>50</v>
+      </c>
+      <c r="E24" s="45" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4681,11 +4858,11 @@
   <sheetPr codeName="Planilha6">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5017,7 +5194,7 @@
         <v>45782</v>
       </c>
       <c r="B19" s="11" t="str">
-        <f t="shared" ref="B19:B23" si="1">CONCATENATE(YEAR(A19),".",_xlfn.ISOWEEKNUM(A19))</f>
+        <f t="shared" ref="B19:B24" si="1">CONCATENATE(YEAR(A19),".",_xlfn.ISOWEEKNUM(A19))</f>
         <v>2025.19</v>
       </c>
       <c r="C19" s="12">
@@ -5099,6 +5276,24 @@
         <v>20</v>
       </c>
       <c r="E23" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>45824</v>
+      </c>
+      <c r="B24" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>2025.25</v>
+      </c>
+      <c r="C24" s="12">
+        <v>48</v>
+      </c>
+      <c r="D24" s="35">
+        <v>20</v>
+      </c>
+      <c r="E24" s="45" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5112,10 +5307,10 @@
   <sheetPr codeName="Planilha7">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5211,6 +5406,23 @@
         <v>105</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>45778</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0.87139999999999995</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5221,11 +5433,11 @@
   <sheetPr codeName="Planilha8">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6208,7 +6420,7 @@
         <v>35</v>
       </c>
       <c r="D49" s="20">
-        <f>C49/B49</f>
+        <f t="shared" ref="D49:D55" si="0">C49/B49</f>
         <v>6.6287878787878785E-2</v>
       </c>
       <c r="E49" s="20">
@@ -6229,7 +6441,7 @@
         <v>56</v>
       </c>
       <c r="D50" s="20">
-        <f>C50/B50</f>
+        <f t="shared" si="0"/>
         <v>7.4966532797858101E-2</v>
       </c>
       <c r="E50" s="20">
@@ -6250,7 +6462,7 @@
         <v>81</v>
       </c>
       <c r="D51" s="20">
-        <f>C51/B51</f>
+        <f t="shared" si="0"/>
         <v>0.11281337047353761</v>
       </c>
       <c r="E51" s="20">
@@ -6271,7 +6483,7 @@
         <v>67</v>
       </c>
       <c r="D52" s="20">
-        <f>C52/B52</f>
+        <f t="shared" si="0"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="E52" s="20">
@@ -6292,7 +6504,7 @@
         <v>83</v>
       </c>
       <c r="D53" s="20">
-        <f>C53/B53</f>
+        <f t="shared" si="0"/>
         <v>0.1089238845144357</v>
       </c>
       <c r="E53" s="20">
@@ -6313,13 +6525,34 @@
         <v>79</v>
       </c>
       <c r="D54" s="20">
-        <f>C54/B54</f>
+        <f t="shared" si="0"/>
         <v>0.10340314136125654</v>
       </c>
       <c r="E54" s="20">
         <v>1.06</v>
       </c>
       <c r="F54" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" s="12">
+        <v>824</v>
+      </c>
+      <c r="C55" s="12">
+        <v>91</v>
+      </c>
+      <c r="D55" s="20">
+        <f t="shared" si="0"/>
+        <v>0.1104368932038835</v>
+      </c>
+      <c r="E55" s="20">
+        <v>1.0406</v>
+      </c>
+      <c r="F55" s="28">
         <v>1</v>
       </c>
     </row>
@@ -6333,11 +6566,11 @@
   <sheetPr codeName="Planilha9">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7207,6 +7440,38 @@
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
     </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="12">
+        <v>3.4</v>
+      </c>
+      <c r="C54" s="12">
+        <v>10</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" s="12">
+        <v>3.43</v>
+      </c>
+      <c r="C55" s="12">
+        <v>10</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/historico_recap.xlsx
+++ b/historico_recap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/pedro_klauber_prestserv_petrobras_com_br1/Documents/C3/Banco de dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="8_{A2D22092-61F7-40F8-A3CB-EE4C820708D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8E9382C-3BFD-4DA3-8259-7BD58F2C0A12}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="8_{A2D22092-61F7-40F8-A3CB-EE4C820708D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8835D219-4583-4E92-8B2F-822957479D34}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="11" xr2:uid="{764A3B1C-4385-41E0-85B9-B2E5043E601B}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="10" xr2:uid="{764A3B1C-4385-41E0-85B9-B2E5043E601B}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTA DE INDICADORES" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="130">
   <si>
     <t>DATA</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>2025.25</t>
+  </si>
+  <si>
+    <t>2025.26</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -746,13 +749,10 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1329,11 +1329,11 @@
   <sheetPr codeName="Planilha10">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
+      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2014,6 +2014,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="17">
+        <v>1</v>
+      </c>
+      <c r="C62" s="17">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2024,11 +2035,11 @@
   <sheetPr codeName="Planilha11">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2525,6 +2536,14 @@
         <v>15138.750000000005</v>
       </c>
     </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>45832</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2537,7 +2556,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -3526,7 +3545,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3971,6 +3990,36 @@
         <v>1</v>
       </c>
       <c r="I17" s="45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>45832</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="12">
+        <v>274</v>
+      </c>
+      <c r="D18" s="12">
+        <v>17</v>
+      </c>
+      <c r="E18" s="12">
+        <v>13</v>
+      </c>
+      <c r="F18" s="43">
+        <v>1</v>
+      </c>
+      <c r="G18" s="20">
+        <f>1-((D18-E18)/(C18))</f>
+        <v>0.98540145985401462</v>
+      </c>
+      <c r="H18" s="41">
+        <v>1</v>
+      </c>
+      <c r="I18" s="45" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4245,11 +4294,11 @@
   <sheetPr codeName="Planilha4">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4382,19 +4431,36 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="10">
         <v>45824</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="12">
         <v>8</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="40">
         <v>10</v>
       </c>
       <c r="E8" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>45832</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="12">
+        <v>10</v>
+      </c>
+      <c r="D9" s="40">
+        <v>10</v>
+      </c>
+      <c r="E9" s="45" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4412,7 +4478,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4858,11 +4924,11 @@
   <sheetPr codeName="Planilha6">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5294,6 +5360,23 @@
         <v>20</v>
       </c>
       <c r="E24" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>45832</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="12">
+        <v>45</v>
+      </c>
+      <c r="D25" s="35">
+        <v>20</v>
+      </c>
+      <c r="E25" s="45" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5433,11 +5516,11 @@
   <sheetPr codeName="Planilha8">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6420,7 +6503,7 @@
         <v>35</v>
       </c>
       <c r="D49" s="20">
-        <f t="shared" ref="D49:D55" si="0">C49/B49</f>
+        <f t="shared" ref="D49:D56" si="0">C49/B49</f>
         <v>6.6287878787878785E-2</v>
       </c>
       <c r="E49" s="20">
@@ -6553,6 +6636,27 @@
         <v>1.0406</v>
       </c>
       <c r="F55" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="12">
+        <v>677</v>
+      </c>
+      <c r="C56" s="12">
+        <v>43</v>
+      </c>
+      <c r="D56" s="20">
+        <f t="shared" si="0"/>
+        <v>6.3515509601181686E-2</v>
+      </c>
+      <c r="E56" s="20">
+        <v>1.0346</v>
+      </c>
+      <c r="F56" s="28">
         <v>1</v>
       </c>
     </row>
@@ -6566,11 +6670,11 @@
   <sheetPr codeName="Planilha9">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7472,6 +7576,22 @@
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
     </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="12">
+        <v>3.51</v>
+      </c>
+      <c r="C56" s="12">
+        <v>10</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/historico_recap.xlsx
+++ b/historico_recap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/pedro_klauber_prestserv_petrobras_com_br1/Documents/C3/Banco de dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="8_{A2D22092-61F7-40F8-A3CB-EE4C820708D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8835D219-4583-4E92-8B2F-822957479D34}"/>
+  <xr:revisionPtr revIDLastSave="240" documentId="8_{A2D22092-61F7-40F8-A3CB-EE4C820708D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD2EC4AC-0AE6-487A-B0FB-9EB76CA91A2F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="10" xr2:uid="{764A3B1C-4385-41E0-85B9-B2E5043E601B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="10" xr2:uid="{764A3B1C-4385-41E0-85B9-B2E5043E601B}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTA DE INDICADORES" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="131">
   <si>
     <t>DATA</t>
   </si>
@@ -439,6 +439,9 @@
   </si>
   <si>
     <t>2025.26</t>
+  </si>
+  <si>
+    <t>2025.27</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1100,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1329,11 +1332,11 @@
   <sheetPr codeName="Planilha10">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2022,6 +2025,28 @@
         <v>1</v>
       </c>
       <c r="C62" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="17">
+        <v>1</v>
+      </c>
+      <c r="C63" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="17">
+        <v>0.78</v>
+      </c>
+      <c r="C64" s="17">
         <v>1</v>
       </c>
     </row>
@@ -2039,7 +2064,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2542,6 +2567,38 @@
       </c>
       <c r="B13" t="s">
         <v>129</v>
+      </c>
+      <c r="C13">
+        <v>7875.2</v>
+      </c>
+      <c r="D13">
+        <v>655.15</v>
+      </c>
+      <c r="E13">
+        <v>1237</v>
+      </c>
+      <c r="F13">
+        <v>79</v>
+      </c>
+      <c r="G13">
+        <v>9612</v>
+      </c>
+      <c r="H13">
+        <v>8530.65</v>
+      </c>
+      <c r="I13">
+        <v>10928</v>
+      </c>
+      <c r="J13">
+        <v>23666.9</v>
+      </c>
+      <c r="K13" s="52">
+        <f t="shared" ref="K13" si="2">H13/J13</f>
+        <v>0.36044644630264205</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13" si="3">J13-H13</f>
+        <v>15136.250000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3545,7 +3602,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4024,7 +4081,34 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
+      <c r="A19" s="10">
+        <v>45839</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="12">
+        <v>246</v>
+      </c>
+      <c r="D19" s="12">
+        <v>7</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19" s="43">
+        <v>1</v>
+      </c>
+      <c r="G19" s="20">
+        <f>1-((D19-E19)/(C19))</f>
+        <v>0.97154471544715448</v>
+      </c>
+      <c r="H19" s="41">
+        <v>1</v>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I20" s="8"/>
@@ -4050,11 +4134,11 @@
   <sheetPr codeName="Planilha3">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4284,6 +4368,14 @@
         <v>107</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>45839</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4294,11 +4386,11 @@
   <sheetPr codeName="Planilha4">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4464,6 +4556,23 @@
         <v>106</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>45839</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="12">
+        <v>8</v>
+      </c>
+      <c r="D10" s="40">
+        <v>10</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4474,11 +4583,11 @@
   <sheetPr codeName="Planilha5">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4648,7 +4757,7 @@
         <v>45722</v>
       </c>
       <c r="B10" s="45" t="str">
-        <f t="shared" ref="B10:B24" si="0">CONCATENATE(YEAR(A10),".",_xlfn.ISOWEEKNUM(A10))</f>
+        <f t="shared" ref="B10:B25" si="0">CONCATENATE(YEAR(A10),".",_xlfn.ISOWEEKNUM(A10))</f>
         <v>2025.10</v>
       </c>
       <c r="C10" s="12">
@@ -4886,7 +4995,7 @@
         <v>2025.24</v>
       </c>
       <c r="C23" s="12">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D23" s="35">
         <v>50</v>
@@ -4910,6 +5019,24 @@
         <v>50</v>
       </c>
       <c r="E24" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>45839</v>
+      </c>
+      <c r="B25" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>2025.27</v>
+      </c>
+      <c r="C25" s="12">
+        <v>92</v>
+      </c>
+      <c r="D25" s="35">
+        <v>50</v>
+      </c>
+      <c r="E25" s="45" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4924,11 +5051,11 @@
   <sheetPr codeName="Planilha6">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5377,6 +5504,23 @@
         <v>20</v>
       </c>
       <c r="E25" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>45839</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="12">
+        <v>43</v>
+      </c>
+      <c r="D26" s="35">
+        <v>20</v>
+      </c>
+      <c r="E26" s="45" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5516,11 +5660,11 @@
   <sheetPr codeName="Planilha8">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6503,7 +6647,7 @@
         <v>35</v>
       </c>
       <c r="D49" s="20">
-        <f t="shared" ref="D49:D56" si="0">C49/B49</f>
+        <f t="shared" ref="D49:D57" si="0">C49/B49</f>
         <v>6.6287878787878785E-2</v>
       </c>
       <c r="E49" s="20">
@@ -6657,6 +6801,27 @@
         <v>1.0346</v>
       </c>
       <c r="F56" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="12">
+        <v>766</v>
+      </c>
+      <c r="C57" s="12">
+        <v>76</v>
+      </c>
+      <c r="D57" s="20">
+        <f t="shared" si="0"/>
+        <v>9.921671018276762E-2</v>
+      </c>
+      <c r="E57" s="20">
+        <v>1.0550999999999999</v>
+      </c>
+      <c r="F57" s="28">
         <v>1</v>
       </c>
     </row>
@@ -6670,11 +6835,11 @@
   <sheetPr codeName="Planilha9">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7592,6 +7757,22 @@
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
     </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="C57" s="12">
+        <v>10</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/historico_recap.xlsx
+++ b/historico_recap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/pedro_klauber_prestserv_petrobras_com_br1/Documents/C3/Banco de dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="240" documentId="8_{A2D22092-61F7-40F8-A3CB-EE4C820708D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD2EC4AC-0AE6-487A-B0FB-9EB76CA91A2F}"/>
+  <xr:revisionPtr revIDLastSave="293" documentId="8_{A2D22092-61F7-40F8-A3CB-EE4C820708D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDFB8B19-BD7C-4500-A35E-99E0E1794FFF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="10" xr2:uid="{764A3B1C-4385-41E0-85B9-B2E5043E601B}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{764A3B1C-4385-41E0-85B9-B2E5043E601B}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTA DE INDICADORES" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="132">
   <si>
     <t>DATA</t>
   </si>
@@ -442,6 +442,9 @@
   </si>
   <si>
     <t>2025.27</t>
+  </si>
+  <si>
+    <t>2025.28</t>
   </si>
 </sst>
 </file>
@@ -1332,11 +1335,11 @@
   <sheetPr codeName="Planilha10">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H63" sqref="H63"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2050,6 +2053,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="17">
+        <v>1</v>
+      </c>
+      <c r="C65" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="17">
+        <v>1</v>
+      </c>
+      <c r="C66" s="17">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2060,11 +2085,11 @@
   <sheetPr codeName="Planilha11">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2593,12 +2618,52 @@
         <v>23666.9</v>
       </c>
       <c r="K13" s="52">
-        <f t="shared" ref="K13" si="2">H13/J13</f>
+        <f t="shared" ref="K13:K14" si="2">H13/J13</f>
         <v>0.36044644630264205</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13" si="3">J13-H13</f>
+        <f t="shared" ref="L13:L14" si="3">J13-H13</f>
         <v>15136.250000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>45846</v>
+      </c>
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14">
+        <v>8323.75</v>
+      </c>
+      <c r="D14">
+        <v>687.82</v>
+      </c>
+      <c r="E14">
+        <v>1311</v>
+      </c>
+      <c r="F14">
+        <v>84</v>
+      </c>
+      <c r="G14">
+        <v>10846</v>
+      </c>
+      <c r="H14">
+        <v>9011.57</v>
+      </c>
+      <c r="I14">
+        <v>12241</v>
+      </c>
+      <c r="J14">
+        <v>23666.9</v>
+      </c>
+      <c r="K14" s="52">
+        <f t="shared" si="2"/>
+        <v>0.38076680934131629</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>14655.330000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3602,7 +3667,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4111,9 +4176,34 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="A20" s="10">
+        <v>45846</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="12">
+        <v>252</v>
+      </c>
+      <c r="D20" s="12">
+        <v>7</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="43">
+        <v>1</v>
+      </c>
+      <c r="G20" s="20">
+        <f>1-((D20-E20)/(C20))</f>
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="H20" s="41">
+        <v>1</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
@@ -4134,11 +4224,11 @@
   <sheetPr codeName="Planilha3">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4368,14 +4458,6 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>45839</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>128</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4386,11 +4468,11 @@
   <sheetPr codeName="Planilha4">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4573,6 +4655,23 @@
         <v>106</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>45846</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="12">
+        <v>9</v>
+      </c>
+      <c r="D11" s="40">
+        <v>10</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4583,11 +4682,11 @@
   <sheetPr codeName="Planilha5">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4757,7 +4856,7 @@
         <v>45722</v>
       </c>
       <c r="B10" s="45" t="str">
-        <f t="shared" ref="B10:B25" si="0">CONCATENATE(YEAR(A10),".",_xlfn.ISOWEEKNUM(A10))</f>
+        <f t="shared" ref="B10:B26" si="0">CONCATENATE(YEAR(A10),".",_xlfn.ISOWEEKNUM(A10))</f>
         <v>2025.10</v>
       </c>
       <c r="C10" s="12">
@@ -5037,6 +5136,24 @@
         <v>50</v>
       </c>
       <c r="E25" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>45846</v>
+      </c>
+      <c r="B26" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>2025.28</v>
+      </c>
+      <c r="C26" s="12">
+        <v>91</v>
+      </c>
+      <c r="D26" s="35">
+        <v>50</v>
+      </c>
+      <c r="E26" s="45" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5051,11 +5168,11 @@
   <sheetPr codeName="Planilha6">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5521,6 +5638,23 @@
         <v>20</v>
       </c>
       <c r="E26" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>45846</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="12">
+        <v>42</v>
+      </c>
+      <c r="D27" s="35">
+        <v>20</v>
+      </c>
+      <c r="E27" s="45" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5660,11 +5794,11 @@
   <sheetPr codeName="Planilha8">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6647,7 +6781,7 @@
         <v>35</v>
       </c>
       <c r="D49" s="20">
-        <f t="shared" ref="D49:D57" si="0">C49/B49</f>
+        <f t="shared" ref="D49:D58" si="0">C49/B49</f>
         <v>6.6287878787878785E-2</v>
       </c>
       <c r="E49" s="20">
@@ -6822,6 +6956,27 @@
         <v>1.0550999999999999</v>
       </c>
       <c r="F57" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="12">
+        <v>821</v>
+      </c>
+      <c r="C58" s="12">
+        <v>85</v>
+      </c>
+      <c r="D58" s="20">
+        <f t="shared" si="0"/>
+        <v>0.10353227771010962</v>
+      </c>
+      <c r="E58" s="20">
+        <v>1.0752999999999999</v>
+      </c>
+      <c r="F58" s="28">
         <v>1</v>
       </c>
     </row>
@@ -6835,11 +6990,11 @@
   <sheetPr codeName="Planilha9">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7773,6 +7928,22 @@
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
     </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="12">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="C58" s="12">
+        <v>10</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/historico_recap.xlsx
+++ b/historico_recap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/pedro_klauber_prestserv_petrobras_com_br1/Documents/C3/Banco de dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="293" documentId="8_{A2D22092-61F7-40F8-A3CB-EE4C820708D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDFB8B19-BD7C-4500-A35E-99E0E1794FFF}"/>
+  <xr:revisionPtr revIDLastSave="353" documentId="8_{A2D22092-61F7-40F8-A3CB-EE4C820708D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16E326CB-F368-41A7-98F1-FE647F2AFA77}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{764A3B1C-4385-41E0-85B9-B2E5043E601B}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="10" xr2:uid="{764A3B1C-4385-41E0-85B9-B2E5043E601B}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTA DE INDICADORES" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="133">
   <si>
     <t>DATA</t>
   </si>
@@ -445,6 +445,9 @@
   </si>
   <si>
     <t>2025.28</t>
+  </si>
+  <si>
+    <t>2025.29</t>
   </si>
 </sst>
 </file>
@@ -630,7 +633,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -646,7 +649,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -754,11 +756,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1109,26 +1107,26 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="13"/>
-    <col min="3" max="3" width="9.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="12"/>
+    <col min="3" max="3" width="9.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="48" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1143,7 +1141,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="50">
+      <c r="E2" s="49">
         <v>45789</v>
       </c>
     </row>
@@ -1158,7 +1156,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="50">
+      <c r="E3" s="49">
         <v>45789</v>
       </c>
     </row>
@@ -1171,7 +1169,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="50">
+      <c r="E4" s="49">
         <v>45789</v>
       </c>
     </row>
@@ -1186,7 +1184,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="50">
+      <c r="E5" s="49">
         <v>45789</v>
       </c>
     </row>
@@ -1201,7 +1199,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="50">
+      <c r="E6" s="49">
         <v>45789</v>
       </c>
     </row>
@@ -1214,7 +1212,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="50"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1227,7 +1225,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="51">
+      <c r="E8" s="50">
         <v>45789</v>
       </c>
     </row>
@@ -1242,7 +1240,7 @@
         <v>98</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="51">
+      <c r="E9" s="50">
         <v>45789</v>
       </c>
     </row>
@@ -1257,7 +1255,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="51">
+      <c r="E10" s="50">
         <v>45789</v>
       </c>
     </row>
@@ -1270,60 +1268,60 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="51">
+      <c r="E11" s="50">
         <v>45789</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1335,11 +1333,11 @@
   <sheetPr codeName="Planilha10">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1350,728 +1348,739 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="17">
-        <v>1</v>
-      </c>
-      <c r="C2" s="17">
+      <c r="B2" s="16">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="17">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17">
+      <c r="B3" s="16">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="17">
-        <v>1</v>
-      </c>
-      <c r="C4" s="17">
+      <c r="B4" s="16">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="17">
-        <v>1</v>
-      </c>
-      <c r="C5" s="17">
+      <c r="B5" s="16">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="17">
-        <v>1</v>
-      </c>
-      <c r="C6" s="17">
+      <c r="B6" s="16">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="17">
-        <v>1</v>
-      </c>
-      <c r="C7" s="17">
+      <c r="B7" s="16">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="17">
-        <v>1</v>
-      </c>
-      <c r="C8" s="17">
+      <c r="B8" s="16">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="17">
-        <v>1</v>
-      </c>
-      <c r="C9" s="17">
+      <c r="B9" s="16">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="17">
-        <v>1</v>
-      </c>
-      <c r="C10" s="17">
+      <c r="B10" s="16">
+        <v>1</v>
+      </c>
+      <c r="C10" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="17">
-        <v>1</v>
-      </c>
-      <c r="C11" s="17">
+      <c r="B11" s="16">
+        <v>1</v>
+      </c>
+      <c r="C11" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="17">
-        <v>1</v>
-      </c>
-      <c r="C12" s="17">
+      <c r="B12" s="16">
+        <v>1</v>
+      </c>
+      <c r="C12" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="17">
-        <v>1</v>
-      </c>
-      <c r="C13" s="17">
+      <c r="B13" s="16">
+        <v>1</v>
+      </c>
+      <c r="C13" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="17">
-        <v>1</v>
-      </c>
-      <c r="C14" s="17">
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="17">
-        <v>1</v>
-      </c>
-      <c r="C15" s="17">
+      <c r="B15" s="16">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="17">
-        <v>1</v>
-      </c>
-      <c r="C16" s="17">
+      <c r="B16" s="16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="17">
+      <c r="B17" s="16">
+        <v>1</v>
+      </c>
+      <c r="C17" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="17">
-        <v>1</v>
-      </c>
-      <c r="C18" s="17">
+      <c r="B18" s="16">
+        <v>1</v>
+      </c>
+      <c r="C18" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="17">
-        <v>1</v>
-      </c>
-      <c r="C19" s="17">
+      <c r="B19" s="16">
+        <v>1</v>
+      </c>
+      <c r="C19" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="17">
-        <v>1</v>
-      </c>
-      <c r="C20" s="17">
+      <c r="B20" s="16">
+        <v>1</v>
+      </c>
+      <c r="C20" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="17">
-        <v>1</v>
-      </c>
-      <c r="C21" s="17">
+      <c r="B21" s="16">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="17">
-        <v>1</v>
-      </c>
-      <c r="C22" s="17">
+      <c r="B22" s="16">
+        <v>1</v>
+      </c>
+      <c r="C22" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="17">
-        <v>1</v>
-      </c>
-      <c r="C23" s="17">
+      <c r="B23" s="16">
+        <v>1</v>
+      </c>
+      <c r="C23" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="17">
-        <v>1</v>
-      </c>
-      <c r="C24" s="17">
+      <c r="B24" s="16">
+        <v>1</v>
+      </c>
+      <c r="C24" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="17">
-        <v>1</v>
-      </c>
-      <c r="C25" s="17">
+      <c r="B25" s="16">
+        <v>1</v>
+      </c>
+      <c r="C25" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="17">
-        <v>1</v>
-      </c>
-      <c r="C26" s="17">
+      <c r="B26" s="16">
+        <v>1</v>
+      </c>
+      <c r="C26" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="17">
-        <v>1</v>
-      </c>
-      <c r="C27" s="17">
+      <c r="B27" s="16">
+        <v>1</v>
+      </c>
+      <c r="C27" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="17">
-        <v>1</v>
-      </c>
-      <c r="C28" s="17">
+      <c r="B28" s="16">
+        <v>1</v>
+      </c>
+      <c r="C28" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="17">
-        <v>1</v>
-      </c>
-      <c r="C29" s="17">
+      <c r="B29" s="16">
+        <v>1</v>
+      </c>
+      <c r="C29" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="17">
-        <v>1</v>
-      </c>
-      <c r="C30" s="17">
+      <c r="B30" s="16">
+        <v>1</v>
+      </c>
+      <c r="C30" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="17">
-        <v>1</v>
-      </c>
-      <c r="C31" s="17">
+      <c r="B31" s="16">
+        <v>1</v>
+      </c>
+      <c r="C31" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="17">
-        <v>1</v>
-      </c>
-      <c r="C32" s="17">
+      <c r="B32" s="16">
+        <v>1</v>
+      </c>
+      <c r="C32" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="17">
-        <v>1</v>
-      </c>
-      <c r="C33" s="17">
+      <c r="B33" s="16">
+        <v>1</v>
+      </c>
+      <c r="C33" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="17">
-        <v>1</v>
-      </c>
-      <c r="C34" s="17">
+      <c r="B34" s="16">
+        <v>1</v>
+      </c>
+      <c r="C34" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="17">
-        <v>1</v>
-      </c>
-      <c r="C35" s="17">
+      <c r="B35" s="16">
+        <v>1</v>
+      </c>
+      <c r="C35" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="17">
-        <v>1</v>
-      </c>
-      <c r="C36" s="17">
+      <c r="B36" s="16">
+        <v>1</v>
+      </c>
+      <c r="C36" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="17">
-        <v>1</v>
-      </c>
-      <c r="C37" s="17">
+      <c r="B37" s="16">
+        <v>1</v>
+      </c>
+      <c r="C37" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="17">
-        <v>1</v>
-      </c>
-      <c r="C38" s="17">
+      <c r="B38" s="16">
+        <v>1</v>
+      </c>
+      <c r="C38" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="17">
-        <v>1</v>
-      </c>
-      <c r="C39" s="17">
+      <c r="B39" s="16">
+        <v>1</v>
+      </c>
+      <c r="C39" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="17">
-        <v>1</v>
-      </c>
-      <c r="C40" s="17">
+      <c r="B40" s="16">
+        <v>1</v>
+      </c>
+      <c r="C40" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="17">
-        <v>1</v>
-      </c>
-      <c r="C41" s="17">
+      <c r="B41" s="16">
+        <v>1</v>
+      </c>
+      <c r="C41" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="17">
-        <v>1</v>
-      </c>
-      <c r="C42" s="17">
+      <c r="B42" s="16">
+        <v>1</v>
+      </c>
+      <c r="C42" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="17">
-        <v>1</v>
-      </c>
-      <c r="C43" s="17">
+      <c r="B43" s="16">
+        <v>1</v>
+      </c>
+      <c r="C43" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="17">
-        <v>1</v>
-      </c>
-      <c r="C44" s="17">
+      <c r="B44" s="16">
+        <v>1</v>
+      </c>
+      <c r="C44" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="17">
-        <v>1</v>
-      </c>
-      <c r="C45" s="17">
+      <c r="B45" s="16">
+        <v>1</v>
+      </c>
+      <c r="C45" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="17">
-        <v>1</v>
-      </c>
-      <c r="C46" s="17">
+      <c r="B46" s="16">
+        <v>1</v>
+      </c>
+      <c r="C46" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="17">
-        <v>1</v>
-      </c>
-      <c r="C47" s="17">
+      <c r="B47" s="16">
+        <v>1</v>
+      </c>
+      <c r="C47" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="17">
-        <v>1</v>
-      </c>
-      <c r="C48" s="17">
+      <c r="B48" s="16">
+        <v>1</v>
+      </c>
+      <c r="C48" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="17">
-        <v>1</v>
-      </c>
-      <c r="C49" s="17">
+      <c r="B49" s="16">
+        <v>1</v>
+      </c>
+      <c r="C49" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="17">
-        <v>1</v>
-      </c>
-      <c r="C50" s="17">
+      <c r="B50" s="16">
+        <v>1</v>
+      </c>
+      <c r="C50" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="17">
-        <v>1</v>
-      </c>
-      <c r="C51" s="17">
+      <c r="B51" s="16">
+        <v>1</v>
+      </c>
+      <c r="C51" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="17">
-        <v>1</v>
-      </c>
-      <c r="C52" s="17">
+      <c r="B52" s="16">
+        <v>1</v>
+      </c>
+      <c r="C52" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="17">
-        <v>1</v>
-      </c>
-      <c r="C53" s="17">
+      <c r="B53" s="16">
+        <v>1</v>
+      </c>
+      <c r="C53" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="17">
-        <v>1</v>
-      </c>
-      <c r="C54" s="17">
+      <c r="B54" s="16">
+        <v>1</v>
+      </c>
+      <c r="C54" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="17">
-        <v>1</v>
-      </c>
-      <c r="C55" s="17">
+      <c r="B55" s="16">
+        <v>1</v>
+      </c>
+      <c r="C55" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="17">
-        <v>1</v>
-      </c>
-      <c r="C56" s="17">
+      <c r="B56" s="16">
+        <v>1</v>
+      </c>
+      <c r="C56" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="17">
-        <v>1</v>
-      </c>
-      <c r="C57" s="17">
+      <c r="B57" s="16">
+        <v>1</v>
+      </c>
+      <c r="C57" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B58" s="17">
-        <v>1</v>
-      </c>
-      <c r="C58" s="17">
+      <c r="B58" s="16">
+        <v>1</v>
+      </c>
+      <c r="C58" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="29" t="s">
+      <c r="A59" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="17">
-        <v>1</v>
-      </c>
-      <c r="C59" s="17">
+      <c r="B59" s="16">
+        <v>1</v>
+      </c>
+      <c r="C59" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="29" t="s">
+      <c r="A60" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="B60" s="17">
-        <v>1</v>
-      </c>
-      <c r="C60" s="17">
+      <c r="B60" s="16">
+        <v>1</v>
+      </c>
+      <c r="C60" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="17">
-        <v>1</v>
-      </c>
-      <c r="C61" s="17">
+      <c r="B61" s="16">
+        <v>1</v>
+      </c>
+      <c r="C61" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B62" s="17">
-        <v>1</v>
-      </c>
-      <c r="C62" s="17">
+      <c r="B62" s="16">
+        <v>1</v>
+      </c>
+      <c r="C62" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="17">
-        <v>1</v>
-      </c>
-      <c r="C63" s="17">
+      <c r="B63" s="16">
+        <v>1</v>
+      </c>
+      <c r="C63" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="17">
+      <c r="B64" s="16">
         <v>0.78</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="29" t="s">
+      <c r="A65" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="17">
-        <v>1</v>
-      </c>
-      <c r="C65" s="17">
+      <c r="B65" s="16">
+        <v>1</v>
+      </c>
+      <c r="C65" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="17">
-        <v>1</v>
-      </c>
-      <c r="C66" s="17">
+      <c r="B66" s="16">
+        <v>1</v>
+      </c>
+      <c r="C66" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="16">
+        <v>1</v>
+      </c>
+      <c r="C67" s="16">
         <v>1</v>
       </c>
     </row>
@@ -2089,7 +2098,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2109,40 +2118,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="46" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2177,7 +2186,7 @@
       <c r="J2">
         <v>23665.900000000005</v>
       </c>
-      <c r="K2" s="52">
+      <c r="K2" s="51">
         <f>H2/J2</f>
         <v>0.30136187510299622</v>
       </c>
@@ -2217,7 +2226,7 @@
       <c r="J3">
         <v>23665.900000000005</v>
       </c>
-      <c r="K3" s="52">
+      <c r="K3" s="51">
         <f t="shared" ref="K3:K12" si="0">H3/J3</f>
         <v>0.31164248982713516</v>
       </c>
@@ -2257,7 +2266,7 @@
       <c r="J4">
         <v>23665.900000000005</v>
       </c>
-      <c r="K4" s="52">
+      <c r="K4" s="51">
         <f t="shared" si="0"/>
         <v>0.30894916314190457</v>
       </c>
@@ -2297,7 +2306,7 @@
       <c r="J5">
         <v>23665.900000000005</v>
       </c>
-      <c r="K5" s="52">
+      <c r="K5" s="51">
         <f t="shared" si="0"/>
         <v>0.32496249878517186</v>
       </c>
@@ -2337,7 +2346,7 @@
       <c r="J6">
         <v>23665.900000000005</v>
       </c>
-      <c r="K6" s="52">
+      <c r="K6" s="51">
         <f t="shared" si="0"/>
         <v>0.34825423922183385</v>
       </c>
@@ -2377,7 +2386,7 @@
       <c r="J7">
         <v>23665.900000000005</v>
       </c>
-      <c r="K7" s="52">
+      <c r="K7" s="51">
         <f t="shared" si="0"/>
         <v>0.26436645130757752</v>
       </c>
@@ -2417,7 +2426,7 @@
       <c r="J8">
         <v>23665.900000000005</v>
       </c>
-      <c r="K8" s="52">
+      <c r="K8" s="51">
         <f t="shared" si="0"/>
         <v>0.35837555301087215</v>
       </c>
@@ -2457,7 +2466,7 @@
       <c r="J9">
         <v>23665.900000000005</v>
       </c>
-      <c r="K9" s="52">
+      <c r="K9" s="51">
         <f t="shared" si="0"/>
         <v>0.37305109883841298</v>
       </c>
@@ -2497,7 +2506,7 @@
       <c r="J10">
         <v>23665.900000000005</v>
       </c>
-      <c r="K10" s="52">
+      <c r="K10" s="51">
         <f t="shared" si="0"/>
         <v>0.35151335888345675</v>
       </c>
@@ -2537,7 +2546,7 @@
       <c r="J11">
         <v>23665.900000000005</v>
       </c>
-      <c r="K11" s="52">
+      <c r="K11" s="51">
         <f t="shared" si="0"/>
         <v>0.35921515767412177</v>
       </c>
@@ -2577,7 +2586,7 @@
       <c r="J12">
         <v>23665.900000000005</v>
       </c>
-      <c r="K12" s="52">
+      <c r="K12" s="51">
         <f t="shared" si="0"/>
         <v>0.36031378481274734</v>
       </c>
@@ -2617,7 +2626,7 @@
       <c r="J13">
         <v>23666.9</v>
       </c>
-      <c r="K13" s="52">
+      <c r="K13" s="51">
         <f t="shared" ref="K13:K14" si="2">H13/J13</f>
         <v>0.36044644630264205</v>
       </c>
@@ -2657,7 +2666,7 @@
       <c r="J14">
         <v>23666.9</v>
       </c>
-      <c r="K14" s="52">
+      <c r="K14" s="51">
         <f t="shared" si="2"/>
         <v>0.38076680934131629</v>
       </c>
@@ -2718,926 +2727,926 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="25" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>18</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <f>AVERAGE(B2)</f>
         <v>18</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>20</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <f>AVERAGE(D2)/5</f>
         <v>4</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="22">
         <f>D2-C2</f>
         <v>2</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="22">
         <f>F2</f>
         <v>2</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="22">
         <v>9</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="19">
         <f>H2/E2</f>
         <v>2.25</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="22">
         <v>2</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="19">
         <f>J2/E2</f>
         <v>0.5</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="22">
         <v>6</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="19">
         <f>L2/E2</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>23</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <f>AVERAGE($B$2:B3)</f>
         <v>20.5</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>26</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <f t="shared" ref="E3:E19" si="0">AVERAGE(D3)/5</f>
         <v>5.2</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="22">
         <f t="shared" ref="F3:F19" si="1">D3-C3</f>
         <v>5.5</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="22">
         <f>G2+F3</f>
         <v>7.5</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="22">
         <v>9</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="19">
         <f t="shared" ref="I3:I19" si="2">H3/E3</f>
         <v>1.7307692307692306</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="22">
         <v>5</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="19">
         <f t="shared" ref="K3:K19" si="3">J3/E3</f>
         <v>0.96153846153846145</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="22">
         <v>6</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="19">
         <f t="shared" ref="M3:M19" si="4">L3/E3</f>
         <v>1.1538461538461537</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>17</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <f>AVERAGE($B$2:B4)</f>
         <v>19.333333333333332</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>20</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <f t="shared" si="1"/>
         <v>0.66666666666666785</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="22">
         <f t="shared" ref="G4:G19" si="5">G3+F4</f>
         <v>8.1666666666666679</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="22">
         <v>8</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="22">
         <v>4</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="22">
         <v>5</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="19">
         <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>92</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <f>AVERAGE($B$2:B5)</f>
         <v>37.5</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>54</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <f t="shared" si="0"/>
         <v>10.8</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="22">
         <f t="shared" si="5"/>
         <v>24.666666666666668</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="22">
         <v>21</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <f t="shared" si="2"/>
         <v>1.9444444444444444</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="22">
         <v>3</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="19">
         <f t="shared" si="3"/>
         <v>0.27777777777777773</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="22">
         <v>15</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="19">
         <f t="shared" si="4"/>
         <v>1.3888888888888888</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>51</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <f>AVERAGE($B$2:B6)</f>
         <v>40.200000000000003</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>50</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="22">
         <f t="shared" si="1"/>
         <v>9.7999999999999972</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <f t="shared" si="5"/>
         <v>34.466666666666669</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>20</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="22">
         <v>10</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="22">
         <v>10</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="19">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>63</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <f>AVERAGE($B$2:B7)</f>
         <v>44</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>60</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="22">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <f t="shared" si="5"/>
         <v>50.466666666666669</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>18</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="22">
         <v>12</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="22">
         <v>15</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="19">
         <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>69</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <f>AVERAGE($B$2:B8)</f>
         <v>47.571428571428569</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>44</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <f t="shared" si="1"/>
         <v>-3.5714285714285694</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="22">
         <f t="shared" si="5"/>
         <v>46.895238095238099</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>18</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <f t="shared" si="2"/>
         <v>2.0454545454545454</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="22">
         <v>6</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <f t="shared" si="3"/>
         <v>0.68181818181818177</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="22">
         <v>10</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="19">
         <f t="shared" si="4"/>
         <v>1.1363636363636362</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>55</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <f>AVERAGE($B$2:B9)</f>
         <v>48.5</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>50</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <f t="shared" si="5"/>
         <v>48.395238095238099</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="22">
         <v>18</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="22">
         <v>8</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="19">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="22">
         <v>11</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="19">
         <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>76</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <f>AVERAGE($B$2:B10)</f>
         <v>51.555555555555557</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>61</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <f t="shared" si="0"/>
         <v>12.2</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <f t="shared" si="1"/>
         <v>9.4444444444444429</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <f t="shared" si="5"/>
         <v>57.839682539682542</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>15</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="19">
         <f t="shared" si="2"/>
         <v>1.2295081967213115</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <v>11</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="19">
         <f t="shared" si="3"/>
         <v>0.90163934426229508</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="22">
         <v>7</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="19">
         <f t="shared" si="4"/>
         <v>0.57377049180327877</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>9</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <f>AVERAGE($B$2:B11)</f>
         <v>47.3</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>15</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <f t="shared" si="1"/>
         <v>-32.299999999999997</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <f t="shared" si="5"/>
         <v>25.539682539682545</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <v>7</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="19">
         <f t="shared" si="2"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <v>3</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="22">
         <v>4</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="19">
         <f t="shared" si="4"/>
         <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>69</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <f>AVERAGE($B$2:B12)</f>
         <v>49.272727272727273</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>49</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <f t="shared" si="0"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <f t="shared" si="1"/>
         <v>-0.27272727272727337</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <f t="shared" si="5"/>
         <v>25.266955266955271</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <v>18</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="19">
         <f t="shared" si="2"/>
         <v>1.8367346938775508</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="22">
         <v>11</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="19">
         <f t="shared" si="3"/>
         <v>1.1224489795918366</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="22">
         <v>6</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="19">
         <f t="shared" si="4"/>
         <v>0.61224489795918358</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>54</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <f>AVERAGE($B$2:B13)</f>
         <v>49.666666666666664</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>52</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <f t="shared" si="0"/>
         <v>10.4</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <f t="shared" si="1"/>
         <v>2.3333333333333357</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="22">
         <f t="shared" si="5"/>
         <v>27.600288600288607</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="22">
         <v>22</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <f t="shared" si="2"/>
         <v>2.1153846153846154</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="22">
         <v>8</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="19">
         <f t="shared" si="3"/>
         <v>0.76923076923076916</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="22">
         <v>6</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="19">
         <f t="shared" si="4"/>
         <v>0.57692307692307687</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>81</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <f>AVERAGE($B$2:B14)</f>
         <v>52.07692307692308</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>64</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <f t="shared" si="0"/>
         <v>12.8</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <f t="shared" si="1"/>
         <v>11.92307692307692</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="22">
         <f t="shared" si="5"/>
         <v>39.523365523365527</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <v>20</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="19">
         <f t="shared" si="2"/>
         <v>1.5625</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="22">
         <v>9</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="19">
         <f t="shared" si="3"/>
         <v>0.703125</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="22">
         <v>14</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="19">
         <f t="shared" si="4"/>
         <v>1.09375</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>51</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="23">
         <f>AVERAGE($B$2:B15)</f>
         <v>52</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>55</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="22">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="22">
         <f t="shared" si="5"/>
         <v>42.523365523365527</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="22">
         <v>20</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <f t="shared" si="2"/>
         <v>1.8181818181818181</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="22">
         <v>12</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="19">
         <f t="shared" si="3"/>
         <v>1.0909090909090908</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="22">
         <v>14</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="19">
         <f t="shared" si="4"/>
         <v>1.2727272727272727</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>68</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="23">
         <f>AVERAGE($B$2:B16)</f>
         <v>53.06666666666667</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>53</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <f t="shared" si="0"/>
         <v>10.6</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <f t="shared" si="1"/>
         <v>-6.6666666666669983E-2</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="22">
         <f t="shared" si="5"/>
         <v>42.456698856698857</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="22">
         <v>20</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="19">
         <f t="shared" si="2"/>
         <v>1.8867924528301887</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="22">
         <v>12</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="19">
         <f t="shared" si="3"/>
         <v>1.1320754716981132</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="22">
         <v>19</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="19">
         <f t="shared" si="4"/>
         <v>1.7924528301886793</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>40</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <f>AVERAGE($B$2:B17)</f>
         <v>52.25</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>41</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <f t="shared" si="0"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <f t="shared" si="1"/>
         <v>-11.25</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="22">
         <f t="shared" si="5"/>
         <v>31.206698856698857</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="22">
         <v>16</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="19">
         <f t="shared" si="2"/>
         <v>1.9512195121951221</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="22">
         <v>9</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="19">
         <f t="shared" si="3"/>
         <v>1.0975609756097562</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="22">
         <v>16</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17" s="19">
         <f t="shared" si="4"/>
         <v>1.9512195121951221</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>62</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="23">
         <f>AVERAGE($B$2:B18)</f>
         <v>52.823529411764703</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>42</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <f t="shared" si="1"/>
         <v>-10.823529411764703</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="22">
         <f t="shared" si="5"/>
         <v>20.383169444934154</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="22">
         <v>16</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="19">
         <f t="shared" si="2"/>
         <v>1.9047619047619047</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="22">
         <v>8</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="19">
         <f t="shared" si="3"/>
         <v>0.95238095238095233</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="22">
         <v>10</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="19">
         <f t="shared" si="4"/>
         <v>1.1904761904761905</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>43</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="23">
         <f>AVERAGE($B$2:B19)</f>
         <v>52.277777777777779</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>50</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <f t="shared" si="1"/>
         <v>-2.2777777777777786</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="22">
         <f t="shared" si="5"/>
         <v>18.105391667156375</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <v>27</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="19">
         <f t="shared" si="2"/>
         <v>2.7</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="22">
         <v>11</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="19">
         <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="22">
         <v>12</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19" s="19">
         <f t="shared" si="4"/>
         <v>1.2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="20"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3663,553 +3672,576 @@
   <sheetPr codeName="Planilha2">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="13" customWidth="1"/>
-    <col min="7" max="8" width="24.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="12" customWidth="1"/>
+    <col min="7" max="8" width="24.44140625" style="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="33" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="43">
-        <v>1</v>
-      </c>
-      <c r="G2" s="20">
-        <v>1</v>
-      </c>
-      <c r="H2" s="41">
-        <v>1</v>
-      </c>
-      <c r="I2" s="45" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="42">
+        <v>1</v>
+      </c>
+      <c r="G2" s="19">
+        <v>1</v>
+      </c>
+      <c r="H2" s="40">
+        <v>1</v>
+      </c>
+      <c r="I2" s="44" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="43">
-        <v>1</v>
-      </c>
-      <c r="G3" s="20">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="42">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19">
         <v>0.97499999999999998</v>
       </c>
-      <c r="H3" s="41">
-        <v>1</v>
-      </c>
-      <c r="I3" s="45" t="s">
+      <c r="H3" s="40">
+        <v>1</v>
+      </c>
+      <c r="I3" s="44" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="43">
-        <v>1</v>
-      </c>
-      <c r="G4" s="20">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="42">
+        <v>1</v>
+      </c>
+      <c r="G4" s="19">
         <v>0.98499999999999999</v>
       </c>
-      <c r="H4" s="41">
-        <v>1</v>
-      </c>
-      <c r="I4" s="45" t="s">
+      <c r="H4" s="40">
+        <v>1</v>
+      </c>
+      <c r="I4" s="44" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="43">
-        <v>1</v>
-      </c>
-      <c r="G5" s="20">
-        <v>1</v>
-      </c>
-      <c r="H5" s="41">
-        <v>1</v>
-      </c>
-      <c r="I5" s="45" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="42">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="40">
+        <v>1</v>
+      </c>
+      <c r="I5" s="44" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="43">
-        <v>1</v>
-      </c>
-      <c r="G6" s="20">
-        <v>1</v>
-      </c>
-      <c r="H6" s="41">
-        <v>1</v>
-      </c>
-      <c r="I6" s="45" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="42">
+        <v>1</v>
+      </c>
+      <c r="G6" s="19">
+        <v>1</v>
+      </c>
+      <c r="H6" s="40">
+        <v>1</v>
+      </c>
+      <c r="I6" s="44" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="43">
-        <v>1</v>
-      </c>
-      <c r="G7" s="20">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="42">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19">
         <v>0.97119999999999995</v>
       </c>
-      <c r="H7" s="41">
-        <v>1</v>
-      </c>
-      <c r="I7" s="45" t="s">
+      <c r="H7" s="40">
+        <v>1</v>
+      </c>
+      <c r="I7" s="44" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="43">
-        <v>1</v>
-      </c>
-      <c r="G8" s="20">
-        <v>1</v>
-      </c>
-      <c r="H8" s="41">
-        <v>1</v>
-      </c>
-      <c r="I8" s="45" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="42">
+        <v>1</v>
+      </c>
+      <c r="G8" s="19">
+        <v>1</v>
+      </c>
+      <c r="H8" s="40">
+        <v>1</v>
+      </c>
+      <c r="I8" s="44" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="43">
-        <v>1</v>
-      </c>
-      <c r="G9" s="20">
-        <v>1</v>
-      </c>
-      <c r="H9" s="41">
-        <v>1</v>
-      </c>
-      <c r="I9" s="45" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="42">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="40">
+        <v>1</v>
+      </c>
+      <c r="I9" s="44" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>45769</v>
       </c>
-      <c r="B10" s="11" t="str">
+      <c r="B10" s="10" t="str">
         <f t="shared" ref="B10:B12" si="0">CONCATENATE(YEAR(A10),".",_xlfn.ISOWEEKNUM(A10))</f>
         <v>2025.17</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>298</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>8</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>8</v>
       </c>
-      <c r="F10" s="43">
-        <v>1</v>
-      </c>
-      <c r="G10" s="20">
-        <v>1</v>
-      </c>
-      <c r="H10" s="41">
-        <v>1</v>
-      </c>
-      <c r="I10" s="45" t="s">
+      <c r="F10" s="42">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19">
+        <v>1</v>
+      </c>
+      <c r="H10" s="40">
+        <v>1</v>
+      </c>
+      <c r="I10" s="44" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>45776</v>
       </c>
-      <c r="B11" s="11" t="str">
+      <c r="B11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>2025.18</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>298</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>4</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>4</v>
       </c>
-      <c r="F11" s="43">
-        <v>1</v>
-      </c>
-      <c r="G11" s="20">
+      <c r="F11" s="42">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
         <v>0.98329999999999995</v>
       </c>
-      <c r="H11" s="41">
-        <v>1</v>
-      </c>
-      <c r="I11" s="45" t="s">
+      <c r="H11" s="40">
+        <v>1</v>
+      </c>
+      <c r="I11" s="44" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>45782</v>
       </c>
-      <c r="B12" s="11" t="str">
+      <c r="B12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>2025.19</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>277</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>8</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>0</v>
       </c>
-      <c r="F12" s="43">
-        <v>1</v>
-      </c>
-      <c r="G12" s="20">
+      <c r="F12" s="42">
+        <v>1</v>
+      </c>
+      <c r="G12" s="19">
         <v>0.98329999999999995</v>
       </c>
-      <c r="H12" s="41">
-        <v>1</v>
-      </c>
-      <c r="I12" s="45" t="s">
+      <c r="H12" s="40">
+        <v>1</v>
+      </c>
+      <c r="I12" s="44" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>45789</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>291</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>8</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>0</v>
       </c>
-      <c r="F13" s="43">
-        <v>1</v>
-      </c>
-      <c r="G13" s="20">
+      <c r="F13" s="42">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19">
         <f>1-(D13/C13)</f>
         <v>0.97250859106529208</v>
       </c>
-      <c r="H13" s="41">
-        <v>1</v>
-      </c>
-      <c r="I13" s="45" t="s">
+      <c r="H13" s="40">
+        <v>1</v>
+      </c>
+      <c r="I13" s="44" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>45801</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>296</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>8</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>0</v>
       </c>
-      <c r="F14" s="43">
-        <v>1</v>
-      </c>
-      <c r="G14" s="20">
+      <c r="F14" s="42">
+        <v>1</v>
+      </c>
+      <c r="G14" s="19">
         <v>0.98529999999999995</v>
       </c>
-      <c r="H14" s="41">
-        <v>1</v>
-      </c>
-      <c r="I14" s="45" t="s">
+      <c r="H14" s="40">
+        <v>1</v>
+      </c>
+      <c r="I14" s="44" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>45811</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>295</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>17</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>13</v>
       </c>
-      <c r="F15" s="43">
-        <v>1</v>
-      </c>
-      <c r="G15" s="20">
+      <c r="F15" s="42">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
         <v>0.96289999999999998</v>
       </c>
-      <c r="H15" s="41">
-        <v>1</v>
-      </c>
-      <c r="I15" s="45" t="s">
+      <c r="H15" s="40">
+        <v>1</v>
+      </c>
+      <c r="I15" s="44" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>45818</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>287</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>17</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>13</v>
       </c>
-      <c r="F16" s="43">
-        <v>1</v>
-      </c>
-      <c r="G16" s="20">
+      <c r="F16" s="42">
+        <v>1</v>
+      </c>
+      <c r="G16" s="19">
         <v>0.96509999999999996</v>
       </c>
-      <c r="H16" s="41">
-        <v>1</v>
-      </c>
-      <c r="I16" s="45" t="s">
+      <c r="H16" s="40">
+        <v>1</v>
+      </c>
+      <c r="I16" s="44" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>45824</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>292</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>17</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>13</v>
       </c>
-      <c r="F17" s="43">
-        <v>1</v>
-      </c>
-      <c r="G17" s="20">
+      <c r="F17" s="42">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19">
         <v>0.96509999999999996</v>
       </c>
-      <c r="H17" s="41">
-        <v>1</v>
-      </c>
-      <c r="I17" s="45" t="s">
+      <c r="H17" s="40">
+        <v>1</v>
+      </c>
+      <c r="I17" s="44" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>45832</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>274</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>17</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>13</v>
       </c>
-      <c r="F18" s="43">
-        <v>1</v>
-      </c>
-      <c r="G18" s="20">
+      <c r="F18" s="42">
+        <v>1</v>
+      </c>
+      <c r="G18" s="19">
         <f>1-((D18-E18)/(C18))</f>
         <v>0.98540145985401462</v>
       </c>
-      <c r="H18" s="41">
-        <v>1</v>
-      </c>
-      <c r="I18" s="45" t="s">
+      <c r="H18" s="40">
+        <v>1</v>
+      </c>
+      <c r="I18" s="44" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>45839</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>246</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>7</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>0</v>
       </c>
-      <c r="F19" s="43">
-        <v>1</v>
-      </c>
-      <c r="G19" s="20">
+      <c r="F19" s="42">
+        <v>1</v>
+      </c>
+      <c r="G19" s="19">
         <f>1-((D19-E19)/(C19))</f>
         <v>0.97154471544715448</v>
       </c>
-      <c r="H19" s="41">
-        <v>1</v>
-      </c>
-      <c r="I19" s="45" t="s">
+      <c r="H19" s="40">
+        <v>1</v>
+      </c>
+      <c r="I19" s="44" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
         <v>45846</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>252</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>7</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>0</v>
       </c>
-      <c r="F20" s="43">
-        <v>1</v>
-      </c>
-      <c r="G20" s="20">
+      <c r="F20" s="42">
+        <v>1</v>
+      </c>
+      <c r="G20" s="19">
         <f>1-((D20-E20)/(C20))</f>
         <v>0.97222222222222221</v>
       </c>
-      <c r="H20" s="41">
-        <v>1</v>
-      </c>
-      <c r="I20" s="45" t="s">
+      <c r="H20" s="40">
+        <v>1</v>
+      </c>
+      <c r="I20" s="44" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>45854</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="11">
+        <v>250</v>
+      </c>
+      <c r="D21" s="11">
+        <v>6</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21" s="42">
+        <v>1</v>
+      </c>
+      <c r="G21" s="19">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="H21" s="40">
+        <v>1</v>
+      </c>
+      <c r="I21" s="44" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4224,11 +4256,11 @@
   <sheetPr codeName="Planilha3">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4242,219 +4274,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="33" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>45776</v>
       </c>
-      <c r="B2" s="11" t="str">
+      <c r="B2" s="10" t="str">
         <f t="shared" ref="B2:B3" si="0">CONCATENATE(YEAR(A2),".",_xlfn.ISOWEEKNUM(A2))</f>
         <v>2025.18</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>3</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>635</v>
       </c>
-      <c r="E2" s="17">
-        <v>1</v>
-      </c>
-      <c r="F2" s="41">
-        <f t="shared" ref="F2:F8" si="1">1-(C2/D2)</f>
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" s="40">
+        <f t="shared" ref="F2:F9" si="1">1-(C2/D2)</f>
         <v>0.99527559055118109</v>
       </c>
-      <c r="G2" s="42">
-        <v>1</v>
-      </c>
-      <c r="H2" s="45" t="s">
+      <c r="G2" s="41">
+        <v>1</v>
+      </c>
+      <c r="H2" s="44" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>45782</v>
       </c>
-      <c r="B3" s="11" t="str">
+      <c r="B3" s="10" t="str">
         <f t="shared" si="0"/>
         <v>2025.19</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>65</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>635</v>
       </c>
-      <c r="E3" s="17">
-        <v>1</v>
-      </c>
-      <c r="F3" s="41">
+      <c r="E3" s="16">
+        <v>1</v>
+      </c>
+      <c r="F3" s="40">
         <f t="shared" si="1"/>
         <v>0.89763779527559051</v>
       </c>
-      <c r="G3" s="42">
-        <v>1</v>
-      </c>
-      <c r="H3" s="45" t="s">
+      <c r="G3" s="41">
+        <v>1</v>
+      </c>
+      <c r="H3" s="44" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>45789</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>51</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>685</v>
       </c>
-      <c r="E4" s="17">
-        <v>1</v>
-      </c>
-      <c r="F4" s="41">
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="F4" s="40">
         <f t="shared" si="1"/>
         <v>0.9255474452554745</v>
       </c>
-      <c r="G4" s="42">
-        <v>1</v>
-      </c>
-      <c r="H4" s="45" t="s">
+      <c r="G4" s="41">
+        <v>1</v>
+      </c>
+      <c r="H4" s="44" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>45804</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>4</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>658</v>
       </c>
-      <c r="E5" s="17">
-        <v>1</v>
-      </c>
-      <c r="F5" s="41">
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="40">
         <f t="shared" si="1"/>
         <v>0.99392097264437695</v>
       </c>
-      <c r="G5" s="42">
-        <v>1</v>
-      </c>
-      <c r="H5" s="45" t="s">
+      <c r="G5" s="41">
+        <v>1</v>
+      </c>
+      <c r="H5" s="44" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>45811</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>92</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>655</v>
       </c>
-      <c r="E6" s="17">
-        <v>1</v>
-      </c>
-      <c r="F6" s="41">
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="40">
         <f t="shared" si="1"/>
         <v>0.85954198473282439</v>
       </c>
-      <c r="G6" s="42">
-        <v>1</v>
-      </c>
-      <c r="H6" s="45" t="s">
+      <c r="G6" s="41">
+        <v>1</v>
+      </c>
+      <c r="H6" s="44" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>45818</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>10</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>651</v>
       </c>
-      <c r="E7" s="17">
-        <v>1</v>
-      </c>
-      <c r="F7" s="41">
+      <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="F7" s="40">
         <f t="shared" si="1"/>
         <v>0.98463901689708144</v>
       </c>
-      <c r="G7" s="42">
-        <v>1</v>
-      </c>
-      <c r="H7" s="45" t="s">
+      <c r="G7" s="41">
+        <v>1</v>
+      </c>
+      <c r="H7" s="44" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="9">
         <v>45824</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="11">
         <v>10</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="11">
         <v>654</v>
       </c>
-      <c r="E8" s="17">
-        <v>1</v>
-      </c>
-      <c r="F8" s="55">
+      <c r="E8" s="16">
+        <v>1</v>
+      </c>
+      <c r="F8" s="40">
         <f t="shared" si="1"/>
         <v>0.98470948012232418</v>
       </c>
-      <c r="G8" s="42">
-        <v>1</v>
-      </c>
-      <c r="H8" s="45" t="s">
+      <c r="G8" s="41">
+        <v>1</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>45854</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="11">
+        <v>12</v>
+      </c>
+      <c r="D9" s="11">
+        <v>614</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="40">
+        <f t="shared" si="1"/>
+        <v>0.98045602605863191</v>
+      </c>
+      <c r="G9" s="41">
+        <v>1</v>
+      </c>
+      <c r="H9" s="44" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4468,11 +4527,11 @@
   <sheetPr codeName="Planilha4">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4484,191 +4543,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>45776</v>
       </c>
-      <c r="B2" s="11" t="str">
+      <c r="B2" s="10" t="str">
         <f t="shared" ref="B2:B3" si="0">CONCATENATE(YEAR(A2),".",_xlfn.ISOWEEKNUM(A2))</f>
         <v>2025.18</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>8</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="39">
         <v>10</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>45782</v>
       </c>
-      <c r="B3" s="11" t="str">
+      <c r="B3" s="10" t="str">
         <f t="shared" si="0"/>
         <v>2025.19</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>10</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="39">
         <v>10</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>45789</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>5</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="39">
         <v>10</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>45804</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>8</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="39">
         <v>10</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>45811</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>9</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="39">
         <v>10</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>45818</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>8</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="39">
         <v>10</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>45824</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>8</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="39">
         <v>10</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>45832</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>10</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="39">
         <v>10</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>45839</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>8</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="39">
         <v>10</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>45846</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>9</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="39">
         <v>10</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>45854</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="11">
+        <v>9</v>
+      </c>
+      <c r="D12" s="39">
+        <v>10</v>
+      </c>
+      <c r="E12" s="44" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4682,478 +4758,496 @@
   <sheetPr codeName="Planilha5">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="12" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="35" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>45660</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>63</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="34">
         <v>50</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>45663</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>64</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="34">
         <v>50</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>45670</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>69</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="34">
         <v>50</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>45677</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>74</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="34">
         <v>50</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>45691</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>80</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="34">
         <v>50</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>45700</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>80</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="34">
         <v>50</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>45707</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>75</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="34">
         <v>50</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>45712</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>75</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="34">
         <v>50</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>45722</v>
       </c>
-      <c r="B10" s="45" t="str">
-        <f t="shared" ref="B10:B26" si="0">CONCATENATE(YEAR(A10),".",_xlfn.ISOWEEKNUM(A10))</f>
+      <c r="B10" s="44" t="str">
+        <f t="shared" ref="B10:B27" si="0">CONCATENATE(YEAR(A10),".",_xlfn.ISOWEEKNUM(A10))</f>
         <v>2025.10</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>75</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="34">
         <v>50</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>45726</v>
       </c>
-      <c r="B11" s="45" t="str">
+      <c r="B11" s="44" t="str">
         <f t="shared" si="0"/>
         <v>2025.11</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>69</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="34">
         <v>50</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>45735</v>
       </c>
-      <c r="B12" s="45" t="str">
+      <c r="B12" s="44" t="str">
         <f t="shared" si="0"/>
         <v>2025.12</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>68</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="34">
         <v>50</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>45742</v>
       </c>
-      <c r="B13" s="45" t="str">
+      <c r="B13" s="44" t="str">
         <f t="shared" si="0"/>
         <v>2025.13</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>67</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="34">
         <v>50</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>45747</v>
       </c>
-      <c r="B14" s="45" t="str">
+      <c r="B14" s="44" t="str">
         <f t="shared" si="0"/>
         <v>2025.14</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>65</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="34">
         <v>50</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>45756</v>
       </c>
-      <c r="B15" s="45" t="str">
+      <c r="B15" s="44" t="str">
         <f t="shared" si="0"/>
         <v>2025.15</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>68</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="34">
         <v>50</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>45763</v>
       </c>
-      <c r="B16" s="45" t="str">
+      <c r="B16" s="44" t="str">
         <f t="shared" si="0"/>
         <v>2025.16</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>68</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="34">
         <v>50</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>45769</v>
       </c>
-      <c r="B17" s="45" t="str">
+      <c r="B17" s="44" t="str">
         <f t="shared" si="0"/>
         <v>2025.17</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>70</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="34">
         <v>50</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>45776</v>
       </c>
-      <c r="B18" s="45" t="str">
+      <c r="B18" s="44" t="str">
         <f t="shared" si="0"/>
         <v>2025.18</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>65</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="34">
         <v>50</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>45782</v>
       </c>
-      <c r="B19" s="45" t="str">
+      <c r="B19" s="44" t="str">
         <f t="shared" si="0"/>
         <v>2025.19</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>91</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="34">
         <v>50</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>45789</v>
       </c>
-      <c r="B20" s="45" t="str">
+      <c r="B20" s="44" t="str">
         <f t="shared" si="0"/>
         <v>2025.20</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>100</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="34">
         <v>50</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>45804</v>
       </c>
-      <c r="B21" s="45" t="str">
+      <c r="B21" s="44" t="str">
         <f t="shared" si="0"/>
         <v>2025.22</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>89</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="34">
         <v>50</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>45811</v>
       </c>
-      <c r="B22" s="45" t="str">
+      <c r="B22" s="44" t="str">
         <f t="shared" si="0"/>
         <v>2025.23</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>95</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="34">
         <v>50</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>45818</v>
       </c>
-      <c r="B23" s="45" t="str">
+      <c r="B23" s="44" t="str">
         <f t="shared" si="0"/>
         <v>2025.24</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>95</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="34">
         <v>50</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>45824</v>
       </c>
-      <c r="B24" s="45" t="str">
+      <c r="B24" s="44" t="str">
         <f t="shared" si="0"/>
         <v>2025.25</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>95</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="34">
         <v>50</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <v>45839</v>
       </c>
-      <c r="B25" s="45" t="str">
+      <c r="B25" s="44" t="str">
         <f t="shared" si="0"/>
         <v>2025.27</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>92</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="34">
         <v>50</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <v>45846</v>
       </c>
-      <c r="B26" s="45" t="str">
+      <c r="B26" s="44" t="str">
         <f t="shared" si="0"/>
         <v>2025.28</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <v>91</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="34">
         <v>50</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="E26" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>45854</v>
+      </c>
+      <c r="B27" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>2025.29</v>
+      </c>
+      <c r="C27" s="11">
+        <v>87</v>
+      </c>
+      <c r="D27" s="34">
+        <v>50</v>
+      </c>
+      <c r="E27" s="44" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5168,493 +5262,510 @@
   <sheetPr codeName="Planilha6">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>45660</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>13</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="34">
         <v>20</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>45663</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>14</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="34">
         <v>20</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>45670</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>18</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="34">
         <v>20</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>45677</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>18</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="34">
         <v>20</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>45691</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>22</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="34">
         <v>20</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>45700</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>22</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="34">
         <v>20</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>45707</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>17</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="34">
         <v>20</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>45712</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>17</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="34">
         <v>20</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>45722</v>
       </c>
-      <c r="B10" s="11" t="str">
+      <c r="B10" s="10" t="str">
         <f t="shared" ref="B10:B18" si="0">CONCATENATE(YEAR(A10),".",_xlfn.ISOWEEKNUM(A10))</f>
         <v>2025.10</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>22</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="34">
         <v>20</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>45726</v>
       </c>
-      <c r="B11" s="11" t="str">
+      <c r="B11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>2025.11</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>22</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="34">
         <v>20</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>45735</v>
       </c>
-      <c r="B12" s="11" t="str">
+      <c r="B12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>2025.12</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>22</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="34">
         <v>20</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>45742</v>
       </c>
-      <c r="B13" s="11" t="str">
+      <c r="B13" s="10" t="str">
         <f t="shared" si="0"/>
         <v>2025.13</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>22</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="34">
         <v>20</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>45747</v>
       </c>
-      <c r="B14" s="11" t="str">
+      <c r="B14" s="10" t="str">
         <f t="shared" si="0"/>
         <v>2025.14</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>21</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="34">
         <v>20</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>45756</v>
       </c>
-      <c r="B15" s="11" t="str">
+      <c r="B15" s="10" t="str">
         <f t="shared" si="0"/>
         <v>2025.15</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>27</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="34">
         <v>20</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>45763</v>
       </c>
-      <c r="B16" s="11" t="str">
+      <c r="B16" s="10" t="str">
         <f t="shared" si="0"/>
         <v>2025.16</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>28</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="34">
         <v>20</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>45769</v>
       </c>
-      <c r="B17" s="11" t="str">
+      <c r="B17" s="10" t="str">
         <f t="shared" si="0"/>
         <v>2025.17</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>28</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="34">
         <v>20</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>45776</v>
       </c>
-      <c r="B18" s="11" t="str">
+      <c r="B18" s="10" t="str">
         <f t="shared" si="0"/>
         <v>2025.18</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>28</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="34">
         <v>20</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>45782</v>
       </c>
-      <c r="B19" s="11" t="str">
+      <c r="B19" s="10" t="str">
         <f t="shared" ref="B19:B24" si="1">CONCATENATE(YEAR(A19),".",_xlfn.ISOWEEKNUM(A19))</f>
         <v>2025.19</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>36</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="34">
         <v>20</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>45789</v>
       </c>
-      <c r="B20" s="11" t="str">
+      <c r="B20" s="10" t="str">
         <f t="shared" si="1"/>
         <v>2025.20</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>39</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="34">
         <v>20</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>45804</v>
       </c>
-      <c r="B21" s="11" t="str">
+      <c r="B21" s="10" t="str">
         <f t="shared" si="1"/>
         <v>2025.22</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>39</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="34">
         <v>20</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>45811</v>
       </c>
-      <c r="B22" s="11" t="str">
+      <c r="B22" s="10" t="str">
         <f t="shared" si="1"/>
         <v>2025.23</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>45</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="34">
         <v>20</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>45818</v>
       </c>
-      <c r="B23" s="11" t="str">
+      <c r="B23" s="10" t="str">
         <f t="shared" si="1"/>
         <v>2025.24</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>45</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="34">
         <v>20</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>45824</v>
       </c>
-      <c r="B24" s="11" t="str">
+      <c r="B24" s="10" t="str">
         <f t="shared" si="1"/>
         <v>2025.25</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>48</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="34">
         <v>20</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <v>45832</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>45</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="34">
         <v>20</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <v>45839</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <v>43</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="34">
         <v>20</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="E26" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+      <c r="A27" s="9">
         <v>45846</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>42</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="34">
         <v>20</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>45854</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="11">
+        <v>42</v>
+      </c>
+      <c r="D28" s="34">
+        <v>20</v>
+      </c>
+      <c r="E28" s="44" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5668,10 +5779,10 @@
   <sheetPr codeName="Planilha7">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5683,87 +5794,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>45658</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="19">
         <v>0.82889999999999997</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>0.9</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="44" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>45689</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>0.83160000000000001</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>0.9</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="44" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>45717</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>0.83289999999999997</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>0.9</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="44" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>45748</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>0.87139999999999995</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>0.9</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="44" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5771,16 +5882,33 @@
       <c r="A6" s="6">
         <v>45778</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>0.87139999999999995</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>0.9</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>45854</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.87139999999999995</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="44" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5794,11 +5922,11 @@
   <sheetPr codeName="Planilha8">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5811,1172 +5939,1193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>328</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>58</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>0.17682926829268292</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>0.94710000000000005</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>517</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>57</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>0.1102514506769826</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>1.0839000000000001</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>757</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>55</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>7.2655217965653898E-2</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>1.0996999999999999</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>746</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>78</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>0.10455764075067024</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>1.0649</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>680</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>82</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>0.12058823529411765</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>1.0261</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>611</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>74</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>0.12111292962356793</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>1.1081000000000001</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>681</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>72</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>0.10572687224669604</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>1.0814999999999999</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>829</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>88</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>0.10615199034981906</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>1.0578000000000001</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>695</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>70</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>0.10071942446043165</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>0.89900000000000002</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>681</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>134</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>0.19676945668135096</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <v>1.0512999999999999</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>811</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>97</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>0.11960542540073983</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <v>1.0472999999999999</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>732</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>103</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>0.14071038251366119</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>1.0706</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>809</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>81</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>0.10012360939431397</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>1.0251999999999999</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>816</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>88</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>0.10784313725490197</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>1.0785</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>616</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>83</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <v>0.13474025974025974</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <v>1.0803</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>848</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>32</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <v>3.7735849056603772E-2</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <v>1.0684</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>922</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>65</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <v>7.0498915401301515E-2</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <v>1.0516000000000001</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>768</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>57</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="19">
         <v>7.421875E-2</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="19">
         <v>1.0538000000000001</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>808</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>53</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <v>6.5594059405940597E-2</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="19">
         <v>1.0978000000000001</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>832</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>60</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <v>7.2115384615384609E-2</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="19">
         <v>1.0754999999999999</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>772</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>27</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="19">
         <v>3.4974093264248704E-2</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="19">
         <v>1.0578000000000001</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>727</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>47</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="19">
         <v>6.4649243466299869E-2</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="19">
         <v>1.0587</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>630</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>35</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="19">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="19">
         <v>1.0804</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>657</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>16</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="19">
         <v>2.4353120243531201E-2</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="19">
         <v>1.0365</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="11">
         <v>629</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <v>19</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="19">
         <v>3.0206677265500796E-2</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="19">
         <v>1.0628</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>764</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>50</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="19">
         <v>6.5445026178010471E-2</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="19">
         <v>1.0572999999999999</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <v>733</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <v>48</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="19">
         <v>6.5484311050477487E-2</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="19">
         <v>1.0507</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <v>871</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>81</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="19">
         <v>9.2996555683122845E-2</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="19">
         <v>1.0834999999999999</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <v>605</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <v>41</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="19">
         <v>6.7768595041322308E-2</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="19">
         <v>1.0945</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <v>502</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <v>14</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="19">
         <v>2.7888446215139442E-2</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="19">
         <v>1.0587</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="11">
         <v>437</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="11">
         <v>37</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="19">
         <v>8.4668192219679639E-2</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="19">
         <v>1.0781000000000001</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="11">
         <v>642</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <v>49</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="19">
         <v>7.6323987538940805E-2</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="19">
         <v>1.0262</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="11">
         <v>766</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <v>42</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="19">
         <v>5.4830287206266322E-2</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="19">
         <v>1.0740000000000001</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="11">
         <v>761</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="11">
         <v>61</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="19">
         <v>8.0157687253613663E-2</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="19">
         <v>1.0548999999999999</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <v>772</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="11">
         <v>60</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="19">
         <v>7.7720207253886009E-2</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="19">
         <v>1.0507</v>
       </c>
-      <c r="F36" s="28">
+      <c r="F36" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <v>819</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="11">
         <v>25</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="19">
         <v>3.0525030525030524E-2</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="19">
         <v>1.0287999999999999</v>
       </c>
-      <c r="F37" s="28">
+      <c r="F37" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="11">
         <v>929</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="11">
         <v>30</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="19">
         <v>3.2292787944025833E-2</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="19">
         <v>1.0541</v>
       </c>
-      <c r="F38" s="28">
+      <c r="F38" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="11">
         <v>744</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="11">
         <v>23</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="19">
         <v>3.0913978494623656E-2</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="19">
         <v>1.046</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F39" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="11">
         <v>849</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="11">
         <v>55</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="19">
         <v>6.4782096584216728E-2</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="19">
         <v>1.0813999999999999</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F40" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="11">
         <v>726</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="11">
         <v>21</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="19">
         <v>2.8925619834710745E-2</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E41" s="19">
         <v>1.0547</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F41" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="11">
         <v>367</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="11">
         <v>21</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="19">
         <v>5.7220708446866483E-2</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="19">
         <v>1.0213000000000001</v>
       </c>
-      <c r="F42" s="28">
+      <c r="F42" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="11">
         <v>912</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="11">
         <v>55</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="19">
         <v>6.0307017543859649E-2</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="19">
         <v>1.0544</v>
       </c>
-      <c r="F43" s="28">
+      <c r="F43" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="11">
         <v>908</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="11">
         <v>42</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="19">
         <v>4.6255506607929514E-2</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="19">
         <v>1.05</v>
       </c>
-      <c r="F44" s="28">
+      <c r="F44" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="11">
         <v>755</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="11">
         <v>107</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="19">
         <v>0.14172185430463577</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="19">
         <v>1.0286999999999999</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <v>765</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <v>64</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="19">
         <v>8.3660130718954243E-2</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="19">
         <v>1.0306999999999999</v>
       </c>
-      <c r="F46" s="28">
+      <c r="F46" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="11">
         <v>713</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="11">
         <v>59</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="19">
         <v>8.2748948106591863E-2</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="19">
         <v>1.0244</v>
       </c>
-      <c r="F47" s="28">
+      <c r="F47" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="11">
         <v>650</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="11">
         <v>36</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="19">
         <v>5.5384615384615386E-2</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="19">
         <v>1.0118</v>
       </c>
-      <c r="F48" s="28">
+      <c r="F48" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="11">
         <v>528</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="11">
         <v>35</v>
       </c>
-      <c r="D49" s="20">
-        <f t="shared" ref="D49:D58" si="0">C49/B49</f>
+      <c r="D49" s="19">
+        <f t="shared" ref="D49:D59" si="0">C49/B49</f>
         <v>6.6287878787878785E-2</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="19">
         <v>1.0531999999999999</v>
       </c>
-      <c r="F49" s="28">
+      <c r="F49" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="11">
         <v>747</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="11">
         <v>56</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="19">
         <f t="shared" si="0"/>
         <v>7.4966532797858101E-2</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="19">
         <v>1.0851</v>
       </c>
-      <c r="F50" s="28">
+      <c r="F50" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="11">
         <v>718</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="11">
         <v>81</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="19">
         <f t="shared" si="0"/>
         <v>0.11281337047353761</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="19">
         <v>1.0506</v>
       </c>
-      <c r="F51" s="28">
+      <c r="F51" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="11">
         <v>737</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="11">
         <v>67</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="19">
         <f t="shared" si="0"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="19">
         <v>1.0771999999999999</v>
       </c>
-      <c r="F52" s="28">
+      <c r="F52" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="11">
         <v>762</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="11">
         <v>83</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="19">
         <f t="shared" si="0"/>
         <v>0.1089238845144357</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="19">
         <v>1.0926</v>
       </c>
-      <c r="F53" s="28">
+      <c r="F53" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="11">
         <v>764</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="11">
         <v>79</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="19">
         <f t="shared" si="0"/>
         <v>0.10340314136125654</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="19">
         <v>1.06</v>
       </c>
-      <c r="F54" s="28">
+      <c r="F54" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="11">
         <v>824</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="11">
         <v>91</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="19">
         <f t="shared" si="0"/>
         <v>0.1104368932038835</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="19">
         <v>1.0406</v>
       </c>
-      <c r="F55" s="28">
+      <c r="F55" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="11">
         <v>677</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="11">
         <v>43</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="19">
         <f t="shared" si="0"/>
         <v>6.3515509601181686E-2</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="19">
         <v>1.0346</v>
       </c>
-      <c r="F56" s="28">
+      <c r="F56" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="11">
         <v>766</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="11">
         <v>76</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="19">
         <f t="shared" si="0"/>
         <v>9.921671018276762E-2</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E57" s="19">
         <v>1.0550999999999999</v>
       </c>
-      <c r="F57" s="28">
+      <c r="F57" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="11">
         <v>821</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="11">
         <v>85</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="19">
         <f t="shared" si="0"/>
         <v>0.10353227771010962</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="19">
         <v>1.0752999999999999</v>
       </c>
-      <c r="F58" s="28">
+      <c r="F58" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="11">
+        <v>716</v>
+      </c>
+      <c r="C59" s="11">
+        <v>43</v>
+      </c>
+      <c r="D59" s="19">
+        <f t="shared" si="0"/>
+        <v>6.0055865921787709E-2</v>
+      </c>
+      <c r="E59" s="19">
+        <v>1.0567</v>
+      </c>
+      <c r="F59" s="27">
         <v>1</v>
       </c>
     </row>
@@ -6990,11 +7139,11 @@
   <sheetPr codeName="Planilha9">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7007,942 +7156,958 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>5.84</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>10</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>5.84</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>10</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>5.84</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>10</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>5.84</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>10</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>5.84</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>10</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>12.36</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>10</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>12.36</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>10</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>12.36</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>10</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>12.36</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>10</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>10</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>10</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>10</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>10</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>10</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>5.13</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>10</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>5.13</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>10</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>5.13</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>10</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>5.13</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>10</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>4.8600000000000003</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>10</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>4.43</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>10</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>3.85</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>10</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>3.77</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>10</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>3.94</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>10</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>3.78</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>10</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="11">
         <v>3.84</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <v>10</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>4.1399999999999997</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>10</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <v>4.1399999999999997</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <v>10</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <v>4.1399999999999997</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>10</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <v>4.2699999999999996</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <v>10</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <v>4.2699999999999996</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <v>10</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="11">
         <v>4.2699999999999996</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="11">
         <v>10</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="11">
         <v>4.2699999999999996</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <v>10</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="11">
         <v>3.81</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <v>10</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="11">
         <v>3.81</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="11">
         <v>10</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <v>3.81</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="11">
         <v>10</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <v>3.81</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="11">
         <v>10</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="11">
         <v>2.76</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="11">
         <v>10</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="11">
         <v>2.76</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="11">
         <v>10</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="11">
         <v>2.1800000000000002</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="11">
         <v>10</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="11">
         <v>3.56</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="11">
         <v>10</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="11">
         <v>4.8</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="11">
         <v>10</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="11">
         <v>4.8</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="11">
         <v>10</v>
       </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="11">
         <v>4.5</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="11">
         <v>10</v>
       </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="11">
         <v>4.2</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="11">
         <v>10</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <v>3.8</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <v>10</v>
       </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="11">
         <v>3.82</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="11">
         <v>10</v>
       </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="11">
         <v>3.85</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="11">
         <v>10</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="11">
         <v>4.8899999999999997</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="11">
         <v>10</v>
       </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="11">
         <v>4.38</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="11">
         <v>10</v>
       </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="11">
         <v>3.2</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="11">
         <v>10</v>
       </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="11">
         <v>3.54</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="11">
         <v>10</v>
       </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="11">
         <v>3.4</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="11">
         <v>10</v>
       </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="11">
         <v>3.4</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="11">
         <v>10</v>
       </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="11">
         <v>3.43</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="11">
         <v>10</v>
       </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="11">
         <v>3.51</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="11">
         <v>10</v>
       </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="11">
         <v>3.5</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="11">
         <v>10</v>
       </c>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="11">
         <v>4.4400000000000004</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="11">
         <v>10</v>
       </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="11">
+        <v>5.48</v>
+      </c>
+      <c r="C59" s="11">
+        <v>10</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/historico_recap.xlsx
+++ b/historico_recap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/pedro_klauber_prestserv_petrobras_com_br1/Documents/C3/Banco de dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="353" documentId="8_{A2D22092-61F7-40F8-A3CB-EE4C820708D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16E326CB-F368-41A7-98F1-FE647F2AFA77}"/>
+  <xr:revisionPtr revIDLastSave="395" documentId="8_{A2D22092-61F7-40F8-A3CB-EE4C820708D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0860EF60-9B90-4987-B208-94F1B97CD634}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="10" xr2:uid="{764A3B1C-4385-41E0-85B9-B2E5043E601B}"/>
+    <workbookView xWindow="-105" yWindow="-16200" windowWidth="14610" windowHeight="15585" firstSheet="4" activeTab="9" xr2:uid="{764A3B1C-4385-41E0-85B9-B2E5043E601B}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTA DE INDICADORES" sheetId="8" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="136">
   <si>
     <t>DATA</t>
   </si>
@@ -448,6 +448,15 @@
   </si>
   <si>
     <t>2025.29</t>
+  </si>
+  <si>
+    <t>2025.39</t>
+  </si>
+  <si>
+    <t>2026.25</t>
+  </si>
+  <si>
+    <t>2025.30</t>
   </si>
 </sst>
 </file>
@@ -633,7 +642,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -759,6 +768,7 @@
     <xf numFmtId="1" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,7 +1111,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1333,11 +1343,11 @@
   <sheetPr codeName="Planilha10">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2084,6 +2094,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="16">
+        <v>1</v>
+      </c>
+      <c r="C68" s="16">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2096,7 +2117,7 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
@@ -3672,11 +3693,11 @@
   <sheetPr codeName="Planilha2">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4243,6 +4264,35 @@
         <v>107</v>
       </c>
     </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>45860</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="12">
+        <v>252</v>
+      </c>
+      <c r="D22" s="11">
+        <v>6</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0</v>
+      </c>
+      <c r="F22" s="42">
+        <v>1</v>
+      </c>
+      <c r="G22" s="19">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="H22" s="40">
+        <v>1</v>
+      </c>
+      <c r="I22" s="44" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <headerFooter>
@@ -4256,11 +4306,11 @@
   <sheetPr codeName="Planilha3">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4517,6 +4567,14 @@
         <v>107</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>45860</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4527,11 +4585,11 @@
   <sheetPr codeName="Planilha4">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4748,6 +4806,23 @@
         <v>106</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>45860</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="11">
+        <v>7</v>
+      </c>
+      <c r="D13" s="39">
+        <v>10</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4758,11 +4833,11 @@
   <sheetPr codeName="Planilha5">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4932,7 +5007,7 @@
         <v>45722</v>
       </c>
       <c r="B10" s="44" t="str">
-        <f t="shared" ref="B10:B27" si="0">CONCATENATE(YEAR(A10),".",_xlfn.ISOWEEKNUM(A10))</f>
+        <f t="shared" ref="B10:B28" si="0">CONCATENATE(YEAR(A10),".",_xlfn.ISOWEEKNUM(A10))</f>
         <v>2025.10</v>
       </c>
       <c r="C10" s="11">
@@ -5248,6 +5323,24 @@
         <v>50</v>
       </c>
       <c r="E27" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>45860</v>
+      </c>
+      <c r="B28" s="44" t="str">
+        <f t="shared" si="0"/>
+        <v>2025.30</v>
+      </c>
+      <c r="C28" s="11">
+        <v>92</v>
+      </c>
+      <c r="D28" s="34">
+        <v>50</v>
+      </c>
+      <c r="E28" s="44" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5262,11 +5355,11 @@
   <sheetPr codeName="Planilha6">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5766,6 +5859,23 @@
         <v>20</v>
       </c>
       <c r="E28" s="44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>45860</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="11">
+        <v>48</v>
+      </c>
+      <c r="D29" s="34">
+        <v>20</v>
+      </c>
+      <c r="E29" s="44" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5922,11 +6032,11 @@
   <sheetPr codeName="Planilha8">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6909,7 +7019,7 @@
         <v>35</v>
       </c>
       <c r="D49" s="19">
-        <f t="shared" ref="D49:D59" si="0">C49/B49</f>
+        <f t="shared" ref="D49:D60" si="0">C49/B49</f>
         <v>6.6287878787878785E-2</v>
       </c>
       <c r="E49" s="19">
@@ -7126,6 +7236,27 @@
         <v>1.0567</v>
       </c>
       <c r="F59" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="11">
+        <v>794</v>
+      </c>
+      <c r="C60" s="11">
+        <v>79</v>
+      </c>
+      <c r="D60" s="19">
+        <f t="shared" si="0"/>
+        <v>9.949622166246852E-2</v>
+      </c>
+      <c r="E60" s="19">
+        <v>1.0731999999999999</v>
+      </c>
+      <c r="F60" s="27">
         <v>1</v>
       </c>
     </row>
@@ -7139,11 +7270,11 @@
   <sheetPr codeName="Planilha9">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8109,6 +8240,22 @@
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
     </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="11">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="C60" s="11">
+        <v>10</v>
+      </c>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
